--- a/DecemberVersions/ObGynTables.xlsx
+++ b/DecemberVersions/ObGynTables.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chandru\CWRU\Research\CCF\COVIDProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3144B89B-51B2-4A35-8BD0-92812AE5B2A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables With Automatic Formulas" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="122">
   <si>
     <t>region</t>
   </si>
@@ -376,159 +378,6 @@
     <t>Concatenated</t>
   </si>
   <si>
-    <t>191 (36%)</t>
-  </si>
-  <si>
-    <t>31 (31.3%)</t>
-  </si>
-  <si>
-    <t>257 (33.6%)</t>
-  </si>
-  <si>
-    <t>86 (31%)</t>
-  </si>
-  <si>
-    <t>1835 (35.9%)</t>
-  </si>
-  <si>
-    <t>209 (27.5%)</t>
-  </si>
-  <si>
-    <t>206 (32.9%)</t>
-  </si>
-  <si>
-    <t>38 (30.4%)</t>
-  </si>
-  <si>
-    <t>66 (27.6%)</t>
-  </si>
-  <si>
-    <t>927 (36.7%)</t>
-  </si>
-  <si>
-    <t>427 (31.3%)</t>
-  </si>
-  <si>
-    <t>73 (30.9%)</t>
-  </si>
-  <si>
-    <t>49 (30.1%)</t>
-  </si>
-  <si>
-    <t>515 (29.4%)</t>
-  </si>
-  <si>
-    <t>198 (26.9%)</t>
-  </si>
-  <si>
-    <t>79 (28.2%)</t>
-  </si>
-  <si>
-    <t>83 (28.2%)</t>
-  </si>
-  <si>
-    <t>155 (31.3%)</t>
-  </si>
-  <si>
-    <t>216 (32.7%)</t>
-  </si>
-  <si>
-    <t>57 (34.3%)</t>
-  </si>
-  <si>
-    <t>338 (31.5%)</t>
-  </si>
-  <si>
-    <t>310 (29.8%)</t>
-  </si>
-  <si>
-    <t>390 (30.2%)</t>
-  </si>
-  <si>
-    <t>178 (25.8%)</t>
-  </si>
-  <si>
-    <t>104 (32.5%)</t>
-  </si>
-  <si>
-    <t>196 (27%)</t>
-  </si>
-  <si>
-    <t>38 (32.5%)</t>
-  </si>
-  <si>
-    <t>62 (29.7%)</t>
-  </si>
-  <si>
-    <t>98 (32.1%)</t>
-  </si>
-  <si>
-    <t>55 (30.4%)</t>
-  </si>
-  <si>
-    <t>470 (34.5%)</t>
-  </si>
-  <si>
-    <t>81 (36.7%)</t>
-  </si>
-  <si>
-    <t>1117 (33.9%)</t>
-  </si>
-  <si>
-    <t>349 (27.1%)</t>
-  </si>
-  <si>
-    <t>19 (26%)</t>
-  </si>
-  <si>
-    <t>414 (28.4%)</t>
-  </si>
-  <si>
-    <t>119 (33.4%)</t>
-  </si>
-  <si>
-    <t>159 (26.8%)</t>
-  </si>
-  <si>
-    <t>544 (32.2%)</t>
-  </si>
-  <si>
-    <t>52 (27.5%)</t>
-  </si>
-  <si>
-    <t>195 (32.6%)</t>
-  </si>
-  <si>
-    <t>26 (27.4%)</t>
-  </si>
-  <si>
-    <t>294 (34.4%)</t>
-  </si>
-  <si>
-    <t>952 (28.8%)</t>
-  </si>
-  <si>
-    <t>101 (29.8%)</t>
-  </si>
-  <si>
-    <t>29 (27.9%)</t>
-  </si>
-  <si>
-    <t>345 (31.3%)</t>
-  </si>
-  <si>
-    <t>258 (29.6%)</t>
-  </si>
-  <si>
-    <t>65 (32.3%)</t>
-  </si>
-  <si>
-    <t>152 (24.5%)</t>
-  </si>
-  <si>
-    <t>21 (28.4%)</t>
-  </si>
-  <si>
     <t>Patient burden per obgyn</t>
   </si>
   <si>
@@ -539,12 +388,18 @@
   </si>
   <si>
     <t>Population/obgyn</t>
+  </si>
+  <si>
+    <t>State Ratio</t>
+  </si>
+  <si>
+    <t>Female COVID-19 Cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1065,12 +920,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="36"/>
+    <cellStyle name="60% - Accent2 2" xfId="37"/>
+    <cellStyle name="60% - Accent3 2" xfId="38"/>
+    <cellStyle name="60% - Accent4 2" xfId="39"/>
+    <cellStyle name="60% - Accent5 2" xfId="40"/>
+    <cellStyle name="60% - Accent6 2" xfId="41"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -1088,7 +943,7 @@
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Neutral 2" xfId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
@@ -1107,6 +962,592 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="state_sex"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>region</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>mf_ratio</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>female</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>alabama</v>
+          </cell>
+          <cell r="B2">
+            <v>0.94099999999999995</v>
+          </cell>
+          <cell r="C2">
+            <v>0.515198351</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>alaska</v>
+          </cell>
+          <cell r="B3">
+            <v>1.08</v>
+          </cell>
+          <cell r="C3">
+            <v>0.48076923100000002</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>arizona</v>
+          </cell>
+          <cell r="B4">
+            <v>0.98899999999999999</v>
+          </cell>
+          <cell r="C4">
+            <v>0.50276520899999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>arkansas</v>
+          </cell>
+          <cell r="B5">
+            <v>0.96099999999999997</v>
+          </cell>
+          <cell r="C5">
+            <v>0.50994390599999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>california</v>
+          </cell>
+          <cell r="B6">
+            <v>0.98899999999999999</v>
+          </cell>
+          <cell r="C6">
+            <v>0.50276520899999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>colorado</v>
+          </cell>
+          <cell r="B7">
+            <v>1.012</v>
+          </cell>
+          <cell r="C7">
+            <v>0.49701789299999999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>connecticut</v>
+          </cell>
+          <cell r="B8">
+            <v>0.95</v>
+          </cell>
+          <cell r="C8">
+            <v>0.51282051299999998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>delaware</v>
+          </cell>
+          <cell r="B9">
+            <v>0.93700000000000006</v>
+          </cell>
+          <cell r="C9">
+            <v>0.51626226099999994</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>district of columbia</v>
+          </cell>
+          <cell r="B10">
+            <v>0.90800000000000003</v>
+          </cell>
+          <cell r="C10">
+            <v>0.52410901499999996</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>florida</v>
+          </cell>
+          <cell r="B11">
+            <v>0.95499999999999996</v>
+          </cell>
+          <cell r="C11">
+            <v>0.51150895100000005</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>georgia</v>
+          </cell>
+          <cell r="B12">
+            <v>0.94799999999999995</v>
+          </cell>
+          <cell r="C12">
+            <v>0.51334702300000001</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>hawaii</v>
+          </cell>
+          <cell r="B13">
+            <v>1.0009999999999999</v>
+          </cell>
+          <cell r="C13">
+            <v>0.49975012499999999</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>idaho</v>
+          </cell>
+          <cell r="B14">
+            <v>1.012</v>
+          </cell>
+          <cell r="C14">
+            <v>0.49701789299999999</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>illinois</v>
+          </cell>
+          <cell r="B15">
+            <v>0.96799999999999997</v>
+          </cell>
+          <cell r="C15">
+            <v>0.50813008100000001</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>indiana</v>
+          </cell>
+          <cell r="B16">
+            <v>0.97099999999999997</v>
+          </cell>
+          <cell r="C16">
+            <v>0.50735667200000001</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>iowa</v>
+          </cell>
+          <cell r="B17">
+            <v>0.98299999999999998</v>
+          </cell>
+          <cell r="C17">
+            <v>0.50428643500000003</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>kansas</v>
+          </cell>
+          <cell r="B18">
+            <v>0.99199999999999999</v>
+          </cell>
+          <cell r="C18">
+            <v>0.50200803199999999</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>kentucky</v>
+          </cell>
+          <cell r="B19">
+            <v>0.96899999999999997</v>
+          </cell>
+          <cell r="C19">
+            <v>0.50787201599999998</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>louisiana</v>
+          </cell>
+          <cell r="B20">
+            <v>0.95499999999999996</v>
+          </cell>
+          <cell r="C20">
+            <v>0.51150895100000005</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>maine</v>
+          </cell>
+          <cell r="B21">
+            <v>0.96099999999999997</v>
+          </cell>
+          <cell r="C21">
+            <v>0.50994390599999995</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>maryland</v>
+          </cell>
+          <cell r="B22">
+            <v>0.94199999999999995</v>
+          </cell>
+          <cell r="C22">
+            <v>0.51493305899999997</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>massachusetts</v>
+          </cell>
+          <cell r="B23">
+            <v>0.94399999999999995</v>
+          </cell>
+          <cell r="C23">
+            <v>0.51440329200000001</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>michigan</v>
+          </cell>
+          <cell r="B24">
+            <v>0.97199999999999998</v>
+          </cell>
+          <cell r="C24">
+            <v>0.50709939100000001</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>minnesota</v>
+          </cell>
+          <cell r="B25">
+            <v>0.99199999999999999</v>
+          </cell>
+          <cell r="C25">
+            <v>0.50200803199999999</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>mississippi</v>
+          </cell>
+          <cell r="B26">
+            <v>0.94</v>
+          </cell>
+          <cell r="C26">
+            <v>0.51546391800000002</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>missouri</v>
+          </cell>
+          <cell r="B27">
+            <v>0.96199999999999997</v>
+          </cell>
+          <cell r="C27">
+            <v>0.50968399600000003</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>montana</v>
+          </cell>
+          <cell r="B28">
+            <v>1.014</v>
+          </cell>
+          <cell r="C28">
+            <v>0.49652433000000001</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>nebraska</v>
+          </cell>
+          <cell r="B29">
+            <v>0.99299999999999999</v>
+          </cell>
+          <cell r="C29">
+            <v>0.50175614700000004</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>nevada</v>
+          </cell>
+          <cell r="B30">
+            <v>1.0069999999999999</v>
+          </cell>
+          <cell r="C30">
+            <v>0.49825610399999998</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>new hampshire</v>
+          </cell>
+          <cell r="B31">
+            <v>0.97399999999999998</v>
+          </cell>
+          <cell r="C31">
+            <v>0.50658561300000005</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>new jersey</v>
+          </cell>
+          <cell r="B32">
+            <v>0.95399999999999996</v>
+          </cell>
+          <cell r="C32">
+            <v>0.51177072700000004</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>new mexico</v>
+          </cell>
+          <cell r="B33">
+            <v>0.98499999999999999</v>
+          </cell>
+          <cell r="C33">
+            <v>0.50377833800000005</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>new york</v>
+          </cell>
+          <cell r="B34">
+            <v>0.94399999999999995</v>
+          </cell>
+          <cell r="C34">
+            <v>0.51440329200000001</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>north carolina</v>
+          </cell>
+          <cell r="B35">
+            <v>0.94799999999999995</v>
+          </cell>
+          <cell r="C35">
+            <v>0.51334702300000001</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>north dakota</v>
+          </cell>
+          <cell r="B36">
+            <v>1.0609999999999999</v>
+          </cell>
+          <cell r="C36">
+            <v>0.485201359</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>ohio</v>
+          </cell>
+          <cell r="B37">
+            <v>0.96199999999999997</v>
+          </cell>
+          <cell r="C37">
+            <v>0.50968399600000003</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>oklahoma</v>
+          </cell>
+          <cell r="B38">
+            <v>0.97799999999999998</v>
+          </cell>
+          <cell r="C38">
+            <v>0.50556117300000003</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>oregon</v>
+          </cell>
+          <cell r="B39">
+            <v>0.98499999999999999</v>
+          </cell>
+          <cell r="C39">
+            <v>0.50377833800000005</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>pennsylvania</v>
+          </cell>
+          <cell r="B40">
+            <v>0.96</v>
+          </cell>
+          <cell r="C40">
+            <v>0.510204082</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>rhode island</v>
+          </cell>
+          <cell r="B41">
+            <v>0.95299999999999996</v>
+          </cell>
+          <cell r="C41">
+            <v>0.51203277000000003</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>south carolina</v>
+          </cell>
+          <cell r="B42">
+            <v>0.94399999999999995</v>
+          </cell>
+          <cell r="C42">
+            <v>0.51440329200000001</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>south dakota</v>
+          </cell>
+          <cell r="B43">
+            <v>1.0189999999999999</v>
+          </cell>
+          <cell r="C43">
+            <v>0.49529469999999998</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>tennessee</v>
+          </cell>
+          <cell r="B44">
+            <v>0.95199999999999996</v>
+          </cell>
+          <cell r="C44">
+            <v>0.51229508199999996</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>texas</v>
+          </cell>
+          <cell r="B45">
+            <v>0.98599999999999999</v>
+          </cell>
+          <cell r="C45">
+            <v>0.50352467300000003</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>utah</v>
+          </cell>
+          <cell r="B46">
+            <v>1.0149999999999999</v>
+          </cell>
+          <cell r="C46">
+            <v>0.49627791599999999</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>vermont</v>
+          </cell>
+          <cell r="B47">
+            <v>0.96799999999999997</v>
+          </cell>
+          <cell r="C47">
+            <v>0.50813008100000001</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>virginia</v>
+          </cell>
+          <cell r="B48">
+            <v>0.96899999999999997</v>
+          </cell>
+          <cell r="C48">
+            <v>0.50787201599999998</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>washington</v>
+          </cell>
+          <cell r="B49">
+            <v>1</v>
+          </cell>
+          <cell r="C49">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>west virginia</v>
+          </cell>
+          <cell r="B50">
+            <v>0.98199999999999998</v>
+          </cell>
+          <cell r="C50">
+            <v>0.50454086799999998</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>wisconsin</v>
+          </cell>
+          <cell r="B51">
+            <v>0.98899999999999999</v>
+          </cell>
+          <cell r="C51">
+            <v>0.50276520899999999</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>wyoming</v>
+          </cell>
+          <cell r="B52">
+            <v>1.026</v>
+          </cell>
+          <cell r="C52">
+            <v>0.493583416</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1371,11 +1812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,11 +1825,12 @@
     <col min="3" max="3" width="9.140625" style="3" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="3"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1413,20 +1855,23 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>169</v>
+      <c r="I1" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="J1" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="K1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1452,23 +1897,27 @@
       <c r="H2" s="2">
         <v>324832</v>
       </c>
-      <c r="I2">
-        <f>ROUND(H2/E2,0)</f>
-        <v>1701</v>
+      <c r="I2" s="3">
+        <f>VLOOKUP(A2,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.515198351</v>
       </c>
       <c r="J2">
-        <f>ROUND(G2/D2,0)</f>
-        <v>9205</v>
-      </c>
-      <c r="K2" s="3">
+        <f>ROUND(H2*I2/E2,0)</f>
+        <v>876</v>
+      </c>
+      <c r="K2">
+        <f>ROUND(G2*I2/D2,0)</f>
+        <v>4742</v>
+      </c>
+      <c r="L2" s="3">
         <v>4389</v>
       </c>
-      <c r="L2">
-        <f>K2/G2*1000000</f>
-        <v>897.93677084833644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>ROUND(L2/G2*1000000,0)</f>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1495,22 +1944,26 @@
         <v>44023</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I52" si="1">ROUND(H3/E3,0)</f>
-        <v>1420</v>
+        <f>VLOOKUP(A3,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.48076923100000002</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J52" si="2">ROUND(G3/D3,0)</f>
-        <v>7449</v>
+        <f t="shared" ref="J3:J52" si="1">ROUND(H3*I3/E3,0)</f>
+        <v>683</v>
       </c>
       <c r="K3" s="3">
+        <f t="shared" ref="K3:K52" si="2">ROUND(G3*I3/D3,0)</f>
+        <v>3581</v>
+      </c>
+      <c r="L3" s="3">
         <v>184</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L52" si="3">K3/G3*1000000</f>
-        <v>249.51520822315337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M52" si="3">ROUND(L3/G3*1000000,0)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1537,22 +1990,26 @@
         <v>461345</v>
       </c>
       <c r="I4" s="3">
+        <f>VLOOKUP(A4,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50276520899999999</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>1795</v>
-      </c>
-      <c r="J4" s="3">
+        <v>903</v>
+      </c>
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
-        <v>9375</v>
-      </c>
-      <c r="K4" s="3">
+        <v>4713</v>
+      </c>
+      <c r="L4" s="3">
         <v>7972</v>
       </c>
-      <c r="L4">
+      <c r="M4" s="3">
         <f t="shared" si="3"/>
-        <v>1111.6028638414775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1579,22 +2036,26 @@
         <v>203107</v>
       </c>
       <c r="I5" s="3">
+        <f>VLOOKUP(A5,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50994390599999995</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>2362</v>
-      </c>
-      <c r="J5" s="3">
+        <v>1204</v>
+      </c>
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
-        <v>10880</v>
-      </c>
-      <c r="K5" s="3">
+        <v>5548</v>
+      </c>
+      <c r="L5" s="3">
         <v>3295</v>
       </c>
-      <c r="L5">
+      <c r="M5" s="3">
         <f t="shared" si="3"/>
-        <v>1093.2907121387123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1621,22 +2082,26 @@
         <v>1923887</v>
       </c>
       <c r="I6" s="3">
+        <f>VLOOKUP(A6,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50276520899999999</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>1048</v>
-      </c>
-      <c r="J6" s="3">
+        <v>527</v>
+      </c>
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
-        <v>7737</v>
-      </c>
-      <c r="K6" s="3">
+        <v>3890</v>
+      </c>
+      <c r="L6" s="3">
         <v>22837</v>
       </c>
-      <c r="L6">
+      <c r="M6" s="3">
         <f t="shared" si="3"/>
-        <v>577.30097171708076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1663,22 +2128,26 @@
         <v>311036</v>
       </c>
       <c r="I7" s="3">
+        <f>VLOOKUP(A7,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.49701789299999999</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>1488</v>
-      </c>
-      <c r="J7" s="3">
+        <v>740</v>
+      </c>
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
-        <v>7494</v>
-      </c>
-      <c r="K7" s="3">
+        <v>3725</v>
+      </c>
+      <c r="L7" s="3">
         <v>4378</v>
       </c>
-      <c r="L7">
+      <c r="M7" s="3">
         <f t="shared" si="3"/>
-        <v>768.68512353742642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1705,22 +2174,26 @@
         <v>167377</v>
       </c>
       <c r="I8" s="3">
+        <f>VLOOKUP(A8,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51282051299999998</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>813</v>
-      </c>
-      <c r="J8" s="3">
+        <v>417</v>
+      </c>
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
-        <v>5698</v>
-      </c>
-      <c r="K8" s="3">
+        <v>2922</v>
+      </c>
+      <c r="L8" s="3">
         <v>5676</v>
       </c>
-      <c r="L8">
+      <c r="M8" s="3">
         <f t="shared" si="3"/>
-        <v>1588.7686706910249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1747,22 +2220,26 @@
         <v>51056</v>
       </c>
       <c r="I9" s="3">
+        <f>VLOOKUP(A9,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51626226099999994</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>1344</v>
-      </c>
-      <c r="J9" s="3">
+        <v>694</v>
+      </c>
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
-        <v>7737</v>
-      </c>
-      <c r="K9" s="3">
+        <v>3994</v>
+      </c>
+      <c r="L9" s="3">
         <v>871</v>
       </c>
-      <c r="L9">
+      <c r="M9" s="3">
         <f t="shared" si="3"/>
-        <v>900.58419066328906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1789,22 +2266,26 @@
         <v>26740</v>
       </c>
       <c r="I10" s="3">
+        <f>VLOOKUP(A10,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.52410901499999996</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-      <c r="J10" s="3">
+        <v>212</v>
+      </c>
+      <c r="K10" s="3">
         <f t="shared" si="2"/>
-        <v>2939</v>
-      </c>
-      <c r="K10" s="3">
+        <v>1541</v>
+      </c>
+      <c r="L10" s="3">
         <v>742</v>
       </c>
-      <c r="L10">
+      <c r="M10" s="3">
         <f t="shared" si="3"/>
-        <v>1056.2277580071175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1831,22 +2312,26 @@
         <v>1212581</v>
       </c>
       <c r="I11" s="3">
+        <f>VLOOKUP(A11,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51150895100000005</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>1308</v>
-      </c>
-      <c r="J11" s="3">
+        <v>669</v>
+      </c>
+      <c r="K11" s="3">
         <f t="shared" si="2"/>
-        <v>8435</v>
-      </c>
-      <c r="K11" s="3">
+        <v>4315</v>
+      </c>
+      <c r="L11" s="3">
         <v>20680</v>
       </c>
-      <c r="L11">
+      <c r="M11" s="3">
         <f t="shared" si="3"/>
-        <v>970.92392707741567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1873,22 +2358,26 @@
         <v>591438</v>
       </c>
       <c r="I12" s="3">
+        <f>VLOOKUP(A12,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51334702300000001</v>
+      </c>
+      <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>1385</v>
-      </c>
-      <c r="J12" s="3">
+        <v>711</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="2"/>
-        <v>7707</v>
-      </c>
-      <c r="K12" s="3">
+        <v>3956</v>
+      </c>
+      <c r="L12" s="3">
         <v>10399</v>
       </c>
-      <c r="L12">
+      <c r="M12" s="3">
         <f t="shared" si="3"/>
-        <v>988.54846596746768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1915,22 +2404,26 @@
         <v>20709</v>
       </c>
       <c r="I13" s="3">
+        <f>VLOOKUP(A13,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.49975012499999999</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>284</v>
-      </c>
-      <c r="J13" s="3">
+        <v>142</v>
+      </c>
+      <c r="K13" s="3">
         <f t="shared" si="2"/>
-        <v>6019</v>
-      </c>
-      <c r="K13" s="3">
+        <v>3008</v>
+      </c>
+      <c r="L13" s="3">
         <v>282</v>
       </c>
-      <c r="L13">
+      <c r="M13" s="3">
         <f t="shared" si="3"/>
-        <v>198.516616263157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1957,22 +2450,26 @@
         <v>130877</v>
       </c>
       <c r="I14" s="3">
+        <f>VLOOKUP(A14,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.49701789299999999</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>2671</v>
-      </c>
-      <c r="J14" s="3">
+        <v>1328</v>
+      </c>
+      <c r="K14" s="3">
         <f t="shared" si="2"/>
-        <v>10762</v>
-      </c>
-      <c r="K14" s="3">
+        <v>5349</v>
+      </c>
+      <c r="L14" s="3">
         <v>1301</v>
       </c>
-      <c r="L14">
+      <c r="M14" s="3">
         <f t="shared" si="3"/>
-        <v>741.63170375775269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1999,22 +2496,26 @@
         <v>905069</v>
       </c>
       <c r="I15" s="3">
+        <f>VLOOKUP(A15,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50813008100000001</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>1757</v>
-      </c>
-      <c r="J15" s="3">
+        <v>893</v>
+      </c>
+      <c r="K15" s="3">
         <f t="shared" si="2"/>
-        <v>7264</v>
-      </c>
-      <c r="K15" s="3">
+        <v>3691</v>
+      </c>
+      <c r="L15" s="3">
         <v>16527</v>
       </c>
-      <c r="L15">
+      <c r="M15" s="3">
         <f t="shared" si="3"/>
-        <v>1297.1799463373916</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2041,22 +2542,26 @@
         <v>468219</v>
       </c>
       <c r="I16" s="3">
+        <f>VLOOKUP(A16,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50735667200000001</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="1"/>
-        <v>2365</v>
-      </c>
-      <c r="J16" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K16" s="3">
         <f t="shared" si="2"/>
-        <v>9092</v>
-      </c>
-      <c r="K16" s="3">
+        <v>4613</v>
+      </c>
+      <c r="L16" s="3">
         <v>7438</v>
       </c>
-      <c r="L16">
+      <c r="M16" s="3">
         <f t="shared" si="3"/>
-        <v>1111.4846942968791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2083,22 +2588,26 @@
         <v>268736</v>
       </c>
       <c r="I17" s="3">
+        <f>VLOOKUP(A17,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50428643500000003</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>3402</v>
-      </c>
-      <c r="J17" s="3">
+        <v>1715</v>
+      </c>
+      <c r="K17" s="3">
         <f t="shared" si="2"/>
-        <v>11272</v>
-      </c>
-      <c r="K17" s="3">
+        <v>5684</v>
+      </c>
+      <c r="L17" s="3">
         <v>3588</v>
       </c>
-      <c r="L17">
+      <c r="M17" s="3">
         <f t="shared" si="3"/>
-        <v>1136.8522310725034</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2125,22 +2634,26 @@
         <v>207784</v>
       </c>
       <c r="I18" s="3">
+        <f>VLOOKUP(A18,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50200803199999999</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>2503</v>
-      </c>
-      <c r="J18" s="3">
+        <v>1257</v>
+      </c>
+      <c r="K18" s="3">
         <f t="shared" si="2"/>
-        <v>9903</v>
-      </c>
-      <c r="K18" s="3">
+        <v>4971</v>
+      </c>
+      <c r="L18" s="3">
         <v>2448</v>
       </c>
-      <c r="L18">
+      <c r="M18" s="3">
         <f t="shared" si="3"/>
-        <v>840.81092916820512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2167,22 +2680,26 @@
         <v>244296</v>
       </c>
       <c r="I19" s="3">
+        <f>VLOOKUP(A19,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50787201599999998</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>1576</v>
-      </c>
-      <c r="J19" s="3">
+        <v>800</v>
+      </c>
+      <c r="K19" s="3">
         <f t="shared" si="2"/>
-        <v>9009</v>
-      </c>
-      <c r="K19" s="3">
+        <v>4575</v>
+      </c>
+      <c r="L19" s="3">
         <v>2412</v>
       </c>
-      <c r="L19">
+      <c r="M19" s="3">
         <f t="shared" si="3"/>
-        <v>539.78956263617829</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2209,22 +2726,26 @@
         <v>287261</v>
       </c>
       <c r="I20" s="3">
+        <f>VLOOKUP(A20,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51150895100000005</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="1"/>
-        <v>1330</v>
-      </c>
-      <c r="J20" s="3">
+        <v>680</v>
+      </c>
+      <c r="K20" s="3">
         <f t="shared" si="2"/>
-        <v>7050</v>
-      </c>
-      <c r="K20" s="3">
+        <v>3606</v>
+      </c>
+      <c r="L20" s="3">
         <v>7107</v>
       </c>
-      <c r="L20">
+      <c r="M20" s="3">
         <f t="shared" si="3"/>
-        <v>1525.1400244640442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2251,22 +2772,26 @@
         <v>19285</v>
       </c>
       <c r="I21" s="3">
+        <f>VLOOKUP(A21,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50994390599999995</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="1"/>
-        <v>338</v>
-      </c>
-      <c r="J21" s="3">
+        <v>173</v>
+      </c>
+      <c r="K21" s="3">
         <f t="shared" si="2"/>
-        <v>8063</v>
-      </c>
-      <c r="K21" s="3">
+        <v>4111</v>
+      </c>
+      <c r="L21" s="3">
         <v>293</v>
       </c>
-      <c r="L21">
+      <c r="M21" s="3">
         <f t="shared" si="3"/>
-        <v>218.92220042962549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2293,22 +2818,26 @@
         <v>253073</v>
       </c>
       <c r="I22" s="3">
+        <f>VLOOKUP(A22,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51493305899999997</v>
+      </c>
+      <c r="J22" s="3">
         <f t="shared" si="1"/>
-        <v>749</v>
-      </c>
-      <c r="J22" s="3">
+        <v>386</v>
+      </c>
+      <c r="K22" s="3">
         <f t="shared" si="2"/>
-        <v>5637</v>
-      </c>
-      <c r="K22" s="3">
+        <v>2903</v>
+      </c>
+      <c r="L22" s="3">
         <v>5471</v>
       </c>
-      <c r="L22">
+      <c r="M22" s="3">
         <f t="shared" si="3"/>
-        <v>905.37798827691893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -2335,22 +2864,26 @@
         <v>327374</v>
       </c>
       <c r="I23" s="3">
+        <f>VLOOKUP(A23,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51440329200000001</v>
+      </c>
+      <c r="J23" s="3">
         <f t="shared" si="1"/>
-        <v>1056</v>
-      </c>
-      <c r="J23" s="3">
+        <v>543</v>
+      </c>
+      <c r="K23" s="3">
         <f t="shared" si="2"/>
-        <v>6624</v>
-      </c>
-      <c r="K23" s="3">
+        <v>3407</v>
+      </c>
+      <c r="L23" s="3">
         <v>11759</v>
       </c>
-      <c r="L23">
+      <c r="M23" s="3">
         <f t="shared" si="3"/>
-        <v>1703.640943943708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2377,22 +2910,26 @@
         <v>501115</v>
       </c>
       <c r="I24" s="3">
+        <f>VLOOKUP(A24,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50709939100000001</v>
+      </c>
+      <c r="J24" s="3">
         <f t="shared" si="1"/>
-        <v>1285</v>
-      </c>
-      <c r="J24" s="3">
+        <v>652</v>
+      </c>
+      <c r="K24" s="3">
         <f t="shared" si="2"/>
-        <v>7743</v>
-      </c>
-      <c r="K24" s="3">
+        <v>3926</v>
+      </c>
+      <c r="L24" s="3">
         <v>12153</v>
       </c>
-      <c r="L24">
+      <c r="M24" s="3">
         <f t="shared" si="3"/>
-        <v>1215.7630841587561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2419,22 +2956,26 @@
         <v>399311</v>
       </c>
       <c r="I25" s="3">
+        <f>VLOOKUP(A25,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50200803199999999</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="1"/>
-        <v>2243</v>
-      </c>
-      <c r="J25" s="3">
+        <v>1126</v>
+      </c>
+      <c r="K25" s="3">
         <f t="shared" si="2"/>
-        <v>8121</v>
-      </c>
-      <c r="K25" s="3">
+        <v>4077</v>
+      </c>
+      <c r="L25" s="3">
         <v>4931</v>
       </c>
-      <c r="L25">
+      <c r="M25" s="3">
         <f t="shared" si="3"/>
-        <v>878.75936499789714</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2461,22 +3002,26 @@
         <v>195500</v>
       </c>
       <c r="I26" s="3">
+        <f>VLOOKUP(A26,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51546391800000002</v>
+      </c>
+      <c r="J26" s="3">
         <f t="shared" si="1"/>
-        <v>1880</v>
-      </c>
-      <c r="J26" s="3">
+        <v>969</v>
+      </c>
+      <c r="K26" s="3">
         <f t="shared" si="2"/>
-        <v>9333</v>
-      </c>
-      <c r="K26" s="3">
+        <v>4811</v>
+      </c>
+      <c r="L26" s="3">
         <v>4411</v>
       </c>
-      <c r="L26">
+      <c r="M26" s="3">
         <f t="shared" si="3"/>
-        <v>1476.9901278395059</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2503,22 +3048,26 @@
         <v>377948</v>
       </c>
       <c r="I27" s="3">
+        <f>VLOOKUP(A27,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50968399600000003</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="1"/>
-        <v>1928</v>
-      </c>
-      <c r="J27" s="3">
+        <v>983</v>
+      </c>
+      <c r="K27" s="3">
         <f t="shared" si="2"/>
-        <v>8427</v>
-      </c>
-      <c r="K27" s="3">
+        <v>4295</v>
+      </c>
+      <c r="L27" s="3">
         <v>5088</v>
       </c>
-      <c r="L27">
+      <c r="M27" s="3">
         <f t="shared" si="3"/>
-        <v>830.48805210398461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2545,22 +3094,26 @@
         <v>77324</v>
       </c>
       <c r="I28" s="3">
+        <f>VLOOKUP(A28,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.49652433000000001</v>
+      </c>
+      <c r="J28" s="3">
         <f t="shared" si="1"/>
-        <v>2035</v>
-      </c>
-      <c r="J28" s="3">
+        <v>1010</v>
+      </c>
+      <c r="K28" s="3">
         <f t="shared" si="2"/>
-        <v>9080</v>
-      </c>
-      <c r="K28" s="3">
+        <v>4508</v>
+      </c>
+      <c r="L28" s="3">
         <v>881</v>
       </c>
-      <c r="L28">
+      <c r="M28" s="3">
         <f t="shared" si="3"/>
-        <v>829.31306332807753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2587,22 +3140,26 @@
         <v>157103</v>
       </c>
       <c r="I29" s="3">
+        <f>VLOOKUP(A29,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50175614700000004</v>
+      </c>
+      <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>2534</v>
-      </c>
-      <c r="J29" s="3">
+        <v>1271</v>
+      </c>
+      <c r="K29" s="3">
         <f t="shared" si="2"/>
-        <v>9231</v>
-      </c>
-      <c r="K29" s="3">
+        <v>4632</v>
+      </c>
+      <c r="L29" s="3">
         <v>1511</v>
       </c>
-      <c r="L29">
+      <c r="M29" s="3">
         <f t="shared" si="3"/>
-        <v>783.21281047960508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2629,22 +3186,26 @@
         <v>205884</v>
       </c>
       <c r="I30" s="3">
+        <f>VLOOKUP(A30,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.49825610399999998</v>
+      </c>
+      <c r="J30" s="3">
         <f t="shared" si="1"/>
-        <v>2101</v>
-      </c>
-      <c r="J30" s="3">
+        <v>1047</v>
+      </c>
+      <c r="K30" s="3">
         <f t="shared" si="2"/>
-        <v>9949</v>
-      </c>
-      <c r="K30" s="3">
+        <v>4957</v>
+      </c>
+      <c r="L30" s="3">
         <v>2785</v>
       </c>
-      <c r="L30">
+      <c r="M30" s="3">
         <f t="shared" si="3"/>
-        <v>917.81486899634558</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2671,22 +3232,26 @@
         <v>37388</v>
       </c>
       <c r="I31" s="3">
+        <f>VLOOKUP(A31,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50658561300000005</v>
+      </c>
+      <c r="J31" s="3">
         <f t="shared" si="1"/>
-        <v>680</v>
-      </c>
-      <c r="J31" s="3">
+        <v>344</v>
+      </c>
+      <c r="K31" s="3">
         <f t="shared" si="2"/>
-        <v>7494</v>
-      </c>
-      <c r="K31" s="3">
+        <v>3797</v>
+      </c>
+      <c r="L31" s="3">
         <v>656</v>
       </c>
-      <c r="L31">
+      <c r="M31" s="3">
         <f t="shared" si="3"/>
-        <v>483.60462373201227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2713,22 +3278,26 @@
         <v>435763</v>
       </c>
       <c r="I32" s="3">
+        <f>VLOOKUP(A32,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51177072700000004</v>
+      </c>
+      <c r="J32" s="3">
         <f t="shared" si="1"/>
-        <v>927</v>
-      </c>
-      <c r="J32" s="3">
+        <v>474</v>
+      </c>
+      <c r="K32" s="3">
         <f t="shared" si="2"/>
-        <v>6536</v>
-      </c>
-      <c r="K32" s="3">
+        <v>3345</v>
+      </c>
+      <c r="L32" s="3">
         <v>18223</v>
       </c>
-      <c r="L32">
+      <c r="M32" s="3">
         <f t="shared" si="3"/>
-        <v>2045.5253137546003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -2755,22 +3324,26 @@
         <v>130808</v>
       </c>
       <c r="I33" s="3">
+        <f>VLOOKUP(A33,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50377833800000005</v>
+      </c>
+      <c r="J33" s="3">
         <f t="shared" si="1"/>
-        <v>1615</v>
-      </c>
-      <c r="J33" s="3">
+        <v>814</v>
+      </c>
+      <c r="K33" s="3">
         <f t="shared" si="2"/>
-        <v>9482</v>
-      </c>
-      <c r="K33" s="3">
+        <v>4777</v>
+      </c>
+      <c r="L33" s="3">
         <v>2180</v>
       </c>
-      <c r="L33">
+      <c r="M33" s="3">
         <f t="shared" si="3"/>
-        <v>1040.3542931317527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -2797,22 +3370,26 @@
         <v>857049</v>
       </c>
       <c r="I34" s="3">
+        <f>VLOOKUP(A34,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51440329200000001</v>
+      </c>
+      <c r="J34" s="3">
         <f t="shared" si="1"/>
-        <v>767</v>
-      </c>
-      <c r="J34" s="3">
+        <v>395</v>
+      </c>
+      <c r="K34" s="3">
         <f t="shared" si="2"/>
-        <v>5936</v>
-      </c>
-      <c r="K34" s="3">
+        <v>3054</v>
+      </c>
+      <c r="L34" s="3">
         <v>36568</v>
       </c>
-      <c r="L34">
+      <c r="M34" s="3">
         <f t="shared" si="3"/>
-        <v>1871.2186280612691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -2839,22 +3416,26 @@
         <v>483647</v>
       </c>
       <c r="I35" s="3">
+        <f>VLOOKUP(A35,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51334702300000001</v>
+      </c>
+      <c r="J35" s="3">
         <f t="shared" si="1"/>
-        <v>1386</v>
-      </c>
-      <c r="J35" s="3">
+        <v>711</v>
+      </c>
+      <c r="K35" s="3">
         <f t="shared" si="2"/>
-        <v>8049</v>
-      </c>
-      <c r="K35" s="3">
+        <v>4132</v>
+      </c>
+      <c r="L35" s="3">
         <v>6240</v>
       </c>
-      <c r="L35">
+      <c r="M35" s="3">
         <f t="shared" si="3"/>
-        <v>600.96078605670823</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -2881,22 +3462,26 @@
         <v>90116</v>
       </c>
       <c r="I36" s="3">
+        <f>VLOOKUP(A36,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.485201359</v>
+      </c>
+      <c r="J36" s="3">
         <f t="shared" si="1"/>
-        <v>4743</v>
-      </c>
-      <c r="J36" s="3">
+        <v>2301</v>
+      </c>
+      <c r="K36" s="3">
         <f t="shared" si="2"/>
-        <v>10412</v>
-      </c>
-      <c r="K36" s="3">
+        <v>5052</v>
+      </c>
+      <c r="L36" s="3">
         <v>1233</v>
       </c>
-      <c r="L36">
+      <c r="M36" s="3">
         <f t="shared" si="3"/>
-        <v>1622.2318120579321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -2923,22 +3508,26 @@
         <v>629354</v>
       </c>
       <c r="I37" s="3">
+        <f>VLOOKUP(A37,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50968399600000003</v>
+      </c>
+      <c r="J37" s="3">
         <f t="shared" si="1"/>
-        <v>1520</v>
-      </c>
-      <c r="J37" s="3">
+        <v>775</v>
+      </c>
+      <c r="K37" s="3">
         <f t="shared" si="2"/>
-        <v>8012</v>
-      </c>
-      <c r="K37" s="3">
+        <v>4084</v>
+      </c>
+      <c r="L37" s="3">
         <v>8122</v>
       </c>
-      <c r="L37">
+      <c r="M37" s="3">
         <f t="shared" si="3"/>
-        <v>694.82055844170623</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -2965,22 +3554,26 @@
         <v>263434</v>
       </c>
       <c r="I38" s="3">
+        <f>VLOOKUP(A38,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50556117300000003</v>
+      </c>
+      <c r="J38" s="3">
         <f t="shared" si="1"/>
-        <v>2214</v>
-      </c>
-      <c r="J38" s="3">
+        <v>1119</v>
+      </c>
+      <c r="K38" s="3">
         <f t="shared" si="2"/>
-        <v>11076</v>
-      </c>
-      <c r="K38" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L38" s="3">
         <v>2218</v>
       </c>
-      <c r="L38">
+      <c r="M38" s="3">
         <f t="shared" si="3"/>
-        <v>562.51000179810455</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3007,22 +3600,26 @@
         <v>103755</v>
       </c>
       <c r="I39" s="3">
+        <f>VLOOKUP(A39,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50377833800000005</v>
+      </c>
+      <c r="J39" s="3">
         <f t="shared" si="1"/>
-        <v>653</v>
-      </c>
-      <c r="J39" s="3">
+        <v>329</v>
+      </c>
+      <c r="K39" s="3">
         <f t="shared" si="2"/>
-        <v>7067</v>
-      </c>
-      <c r="K39" s="3">
+        <v>3560</v>
+      </c>
+      <c r="L39" s="3">
         <v>1347</v>
       </c>
-      <c r="L39">
+      <c r="M39" s="3">
         <f t="shared" si="3"/>
-        <v>321.42570794787702</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -3049,22 +3646,26 @@
         <v>569099</v>
       </c>
       <c r="I40" s="3">
+        <f>VLOOKUP(A40,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.510204082</v>
+      </c>
+      <c r="J40" s="3">
         <f t="shared" si="1"/>
-        <v>1046</v>
-      </c>
-      <c r="J40" s="3">
+        <v>534</v>
+      </c>
+      <c r="K40" s="3">
         <f t="shared" si="2"/>
-        <v>7578</v>
-      </c>
-      <c r="K40" s="3">
+        <v>3866</v>
+      </c>
+      <c r="L40" s="3">
         <v>13890</v>
       </c>
-      <c r="L40">
+      <c r="M40" s="3">
         <f t="shared" si="3"/>
-        <v>1084.5313735250199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -3091,22 +3692,26 @@
         <v>80231</v>
       </c>
       <c r="I41" s="3">
+        <f>VLOOKUP(A41,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51203277000000003</v>
+      </c>
+      <c r="J41" s="3">
         <f t="shared" si="1"/>
-        <v>1543</v>
-      </c>
-      <c r="J41" s="3">
+        <v>790</v>
+      </c>
+      <c r="K41" s="3">
         <f t="shared" si="2"/>
-        <v>5594</v>
-      </c>
-      <c r="K41" s="3">
+        <v>2864</v>
+      </c>
+      <c r="L41" s="3">
         <v>1670</v>
       </c>
-      <c r="L41">
+      <c r="M41" s="3">
         <f t="shared" si="3"/>
-        <v>1579.46506261113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3133,22 +3738,26 @@
         <v>275733</v>
       </c>
       <c r="I42" s="3">
+        <f>VLOOKUP(A42,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51440329200000001</v>
+      </c>
+      <c r="J42" s="3">
         <f t="shared" si="1"/>
-        <v>1414</v>
-      </c>
-      <c r="J42" s="3">
+        <v>727</v>
+      </c>
+      <c r="K42" s="3">
         <f t="shared" si="2"/>
-        <v>8487</v>
-      </c>
-      <c r="K42" s="3">
+        <v>4366</v>
+      </c>
+      <c r="L42" s="3">
         <v>4962</v>
       </c>
-      <c r="L42">
+      <c r="M42" s="3">
         <f t="shared" si="3"/>
-        <v>976.00218725197942</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -3175,22 +3784,26 @@
         <v>95074</v>
       </c>
       <c r="I43" s="3">
+        <f>VLOOKUP(A43,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.49529469999999998</v>
+      </c>
+      <c r="J43" s="3">
         <f t="shared" si="1"/>
-        <v>3657</v>
-      </c>
-      <c r="J43" s="3">
+        <v>1811</v>
+      </c>
+      <c r="K43" s="3">
         <f t="shared" si="2"/>
-        <v>9287</v>
-      </c>
-      <c r="K43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L43" s="3">
         <v>1381</v>
       </c>
-      <c r="L43">
+      <c r="M43" s="3">
         <f t="shared" si="3"/>
-        <v>1565.3549875995773</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -3217,22 +3830,26 @@
         <v>529578</v>
       </c>
       <c r="I44" s="3">
+        <f>VLOOKUP(A44,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.51229508199999996</v>
+      </c>
+      <c r="J44" s="3">
         <f t="shared" si="1"/>
-        <v>1801</v>
-      </c>
-      <c r="J44" s="3">
+        <v>923</v>
+      </c>
+      <c r="K44" s="3">
         <f t="shared" si="2"/>
-        <v>7918</v>
-      </c>
-      <c r="K44" s="3">
+        <v>4056</v>
+      </c>
+      <c r="L44" s="3">
         <v>6136</v>
       </c>
-      <c r="L44">
+      <c r="M44" s="3">
         <f t="shared" si="3"/>
-        <v>906.36627773863393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -3259,22 +3876,26 @@
         <v>1604991</v>
       </c>
       <c r="I45" s="3">
+        <f>VLOOKUP(A45,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50352467300000003</v>
+      </c>
+      <c r="J45" s="3">
         <f t="shared" si="1"/>
-        <v>1686</v>
-      </c>
-      <c r="J45" s="3">
+        <v>849</v>
+      </c>
+      <c r="K45" s="3">
         <f t="shared" si="2"/>
-        <v>8676</v>
-      </c>
-      <c r="K45" s="3">
+        <v>4369</v>
+      </c>
+      <c r="L45" s="3">
         <v>25936</v>
       </c>
-      <c r="L45">
+      <c r="M45" s="3">
         <f t="shared" si="3"/>
-        <v>903.64347474190015</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -3301,22 +3922,26 @@
         <v>252783</v>
       </c>
       <c r="I46" s="3">
+        <f>VLOOKUP(A46,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.49627791599999999</v>
+      </c>
+      <c r="J46" s="3">
         <f t="shared" si="1"/>
-        <v>2503</v>
-      </c>
-      <c r="J46" s="3">
+        <v>1242</v>
+      </c>
+      <c r="K46" s="3">
         <f t="shared" si="2"/>
-        <v>9325</v>
-      </c>
-      <c r="K46" s="3">
+        <v>4628</v>
+      </c>
+      <c r="L46" s="3">
         <v>1161</v>
       </c>
-      <c r="L46">
+      <c r="M46" s="3">
         <f t="shared" si="3"/>
-        <v>367.27303096102162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -3343,22 +3968,26 @@
         <v>6534</v>
       </c>
       <c r="I47" s="3">
+        <f>VLOOKUP(A47,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50813008100000001</v>
+      </c>
+      <c r="J47" s="3">
         <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="J47" s="3">
+        <v>114</v>
+      </c>
+      <c r="K47" s="3">
         <f t="shared" si="2"/>
-        <v>6022</v>
-      </c>
-      <c r="K47" s="3">
+        <v>3060</v>
+      </c>
+      <c r="L47" s="3">
         <v>111</v>
       </c>
-      <c r="L47">
+      <c r="M47" s="3">
         <f t="shared" si="3"/>
-        <v>177.23107579263007</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -3385,22 +4014,26 @@
         <v>310890</v>
       </c>
       <c r="I48" s="3">
+        <f>VLOOKUP(A48,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50787201599999998</v>
+      </c>
+      <c r="J48" s="3">
         <f t="shared" si="1"/>
-        <v>901</v>
-      </c>
-      <c r="J48" s="3">
+        <v>458</v>
+      </c>
+      <c r="K48" s="3">
         <f t="shared" si="2"/>
-        <v>7736</v>
-      </c>
-      <c r="K48" s="3">
+        <v>3929</v>
+      </c>
+      <c r="L48" s="3">
         <v>4654</v>
       </c>
-      <c r="L48">
+      <c r="M48" s="3">
         <f t="shared" si="3"/>
-        <v>546.39894448967118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -3427,22 +4060,26 @@
         <v>226635</v>
       </c>
       <c r="I49" s="3">
+        <f>VLOOKUP(A49,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J49" s="3">
         <f t="shared" si="1"/>
-        <v>878</v>
-      </c>
-      <c r="J49" s="3">
+        <v>439</v>
+      </c>
+      <c r="K49" s="3">
         <f t="shared" si="2"/>
-        <v>8652</v>
-      </c>
-      <c r="K49" s="3">
+        <v>4326</v>
+      </c>
+      <c r="L49" s="3">
         <v>3106</v>
       </c>
-      <c r="L49">
+      <c r="M49" s="3">
         <f t="shared" si="3"/>
-        <v>412.17599198260632</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -3469,22 +4106,26 @@
         <v>73337</v>
       </c>
       <c r="I50" s="3">
+        <f>VLOOKUP(A50,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50454086799999998</v>
+      </c>
+      <c r="J50" s="3">
         <f t="shared" si="1"/>
-        <v>1128</v>
-      </c>
-      <c r="J50" s="3">
+        <v>569</v>
+      </c>
+      <c r="K50" s="3">
         <f t="shared" si="2"/>
-        <v>8984</v>
-      </c>
-      <c r="K50" s="3">
+        <v>4533</v>
+      </c>
+      <c r="L50" s="3">
         <v>1129</v>
       </c>
-      <c r="L50">
+      <c r="M50" s="3">
         <f t="shared" si="3"/>
-        <v>625.20627930827482</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -3511,22 +4152,26 @@
         <v>494353</v>
       </c>
       <c r="I51" s="3">
+        <f>VLOOKUP(A51,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.50276520899999999</v>
+      </c>
+      <c r="J51" s="3">
         <f t="shared" si="1"/>
-        <v>3252</v>
-      </c>
-      <c r="J51" s="3">
+        <v>1635</v>
+      </c>
+      <c r="K51" s="3">
         <f t="shared" si="2"/>
-        <v>9377</v>
-      </c>
-      <c r="K51" s="3">
+        <v>4714</v>
+      </c>
+      <c r="L51" s="3">
         <v>4751</v>
       </c>
-      <c r="L51">
+      <c r="M51" s="3">
         <f t="shared" si="3"/>
-        <v>817.21100384679153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -3553,19 +4198,23 @@
         <v>42118</v>
       </c>
       <c r="I52" s="3">
+        <f>VLOOKUP(A52,[1]state_sex!$A:$C,3,FALSE)</f>
+        <v>0.493583416</v>
+      </c>
+      <c r="J52" s="3">
         <f t="shared" si="1"/>
-        <v>2006</v>
-      </c>
-      <c r="J52" s="3">
+        <v>990</v>
+      </c>
+      <c r="K52" s="3">
         <f t="shared" si="2"/>
-        <v>7807</v>
-      </c>
-      <c r="K52" s="3">
+        <v>3854</v>
+      </c>
+      <c r="L52" s="3">
         <v>351</v>
       </c>
-      <c r="L52">
+      <c r="M52" s="3">
         <f t="shared" si="3"/>
-        <v>607.53762059881399</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -3574,19 +4223,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -3594,1043 +4246,1504 @@
         <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2">
-        <v>9205</v>
-      </c>
-      <c r="D2">
-        <v>1701</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="3" t="str">
+        <f>VLOOKUP(A2,'Raw Data'!A:M,6,FALSE)</f>
+        <v>191 (36%)</v>
+      </c>
+      <c r="C2" s="3">
+        <f>VLOOKUP(A2,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4742</v>
+      </c>
+      <c r="D2" s="3">
+        <f>VLOOKUP(A2,'Raw Data'!A:M,10,FALSE)</f>
+        <v>876</v>
+      </c>
+      <c r="E2" s="3">
+        <f>VLOOKUP(A2,'Raw Data'!A:M,8,FALSE)</f>
         <v>324832</v>
       </c>
-      <c r="F2">
-        <v>897.93677084833644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="3">
+        <f>ROUND(E2*VLOOKUP(A2,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>167353</v>
+      </c>
+      <c r="G2" s="3">
+        <f>VLOOKUP(A2,'Raw Data'!A:M,13,FALSE)</f>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3">
-        <v>7449</v>
-      </c>
-      <c r="D3">
-        <v>1420</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="3" t="str">
+        <f>VLOOKUP(A3,'Raw Data'!A:M,6,FALSE)</f>
+        <v>31 (31.3%)</v>
+      </c>
+      <c r="C3" s="3">
+        <f>VLOOKUP(A3,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3581</v>
+      </c>
+      <c r="D3" s="3">
+        <f>VLOOKUP(A3,'Raw Data'!A:M,10,FALSE)</f>
+        <v>683</v>
+      </c>
+      <c r="E3" s="3">
+        <f>VLOOKUP(A3,'Raw Data'!A:M,8,FALSE)</f>
         <v>44023</v>
       </c>
-      <c r="F3">
-        <v>249.51520822315337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F3" s="3">
+        <f>ROUND(E3*VLOOKUP(A3,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>21165</v>
+      </c>
+      <c r="G3" s="3">
+        <f>VLOOKUP(A3,'Raw Data'!A:M,13,FALSE)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4">
-        <v>9375</v>
-      </c>
-      <c r="D4">
-        <v>1795</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="3" t="str">
+        <f>VLOOKUP(A4,'Raw Data'!A:M,6,FALSE)</f>
+        <v>257 (33.6%)</v>
+      </c>
+      <c r="C4" s="3">
+        <f>VLOOKUP(A4,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4713</v>
+      </c>
+      <c r="D4" s="3">
+        <f>VLOOKUP(A4,'Raw Data'!A:M,10,FALSE)</f>
+        <v>903</v>
+      </c>
+      <c r="E4" s="3">
+        <f>VLOOKUP(A4,'Raw Data'!A:M,8,FALSE)</f>
         <v>461345</v>
       </c>
-      <c r="F4">
-        <v>1111.6028638414775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="3">
+        <f>ROUND(E4*VLOOKUP(A4,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>231948</v>
+      </c>
+      <c r="G4" s="3">
+        <f>VLOOKUP(A4,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5">
-        <v>10880</v>
-      </c>
-      <c r="D5">
-        <v>2362</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="3" t="str">
+        <f>VLOOKUP(A5,'Raw Data'!A:M,6,FALSE)</f>
+        <v>86 (31%)</v>
+      </c>
+      <c r="C5" s="3">
+        <f>VLOOKUP(A5,'Raw Data'!A:M,11,FALSE)</f>
+        <v>5548</v>
+      </c>
+      <c r="D5" s="3">
+        <f>VLOOKUP(A5,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1204</v>
+      </c>
+      <c r="E5" s="3">
+        <f>VLOOKUP(A5,'Raw Data'!A:M,8,FALSE)</f>
         <v>203107</v>
       </c>
-      <c r="F5">
-        <v>1093.2907121387123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F5" s="3">
+        <f>ROUND(E5*VLOOKUP(A5,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>103573</v>
+      </c>
+      <c r="G5" s="3">
+        <f>VLOOKUP(A5,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6">
-        <v>7737</v>
-      </c>
-      <c r="D6">
-        <v>1048</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="3" t="str">
+        <f>VLOOKUP(A6,'Raw Data'!A:M,6,FALSE)</f>
+        <v>1835 (35.9%)</v>
+      </c>
+      <c r="C6" s="3">
+        <f>VLOOKUP(A6,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3890</v>
+      </c>
+      <c r="D6" s="3">
+        <f>VLOOKUP(A6,'Raw Data'!A:M,10,FALSE)</f>
+        <v>527</v>
+      </c>
+      <c r="E6" s="3">
+        <f>VLOOKUP(A6,'Raw Data'!A:M,8,FALSE)</f>
         <v>1923887</v>
       </c>
-      <c r="F6">
-        <v>577.30097171708076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F6" s="3">
+        <f>ROUND(E6*VLOOKUP(A6,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>967263</v>
+      </c>
+      <c r="G6" s="3">
+        <f>VLOOKUP(A6,'Raw Data'!A:M,13,FALSE)</f>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7">
-        <v>7494</v>
-      </c>
-      <c r="D7">
-        <v>1488</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="3" t="str">
+        <f>VLOOKUP(A7,'Raw Data'!A:M,6,FALSE)</f>
+        <v>209 (27.5%)</v>
+      </c>
+      <c r="C7" s="3">
+        <f>VLOOKUP(A7,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3725</v>
+      </c>
+      <c r="D7" s="3">
+        <f>VLOOKUP(A7,'Raw Data'!A:M,10,FALSE)</f>
+        <v>740</v>
+      </c>
+      <c r="E7" s="3">
+        <f>VLOOKUP(A7,'Raw Data'!A:M,8,FALSE)</f>
         <v>311036</v>
       </c>
-      <c r="F7">
-        <v>768.68512353742642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F7" s="3">
+        <f>ROUND(E7*VLOOKUP(A7,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>154590</v>
+      </c>
+      <c r="G7" s="3">
+        <f>VLOOKUP(A7,'Raw Data'!A:M,13,FALSE)</f>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8">
-        <v>5698</v>
-      </c>
-      <c r="D8">
-        <v>813</v>
-      </c>
-      <c r="E8">
+      <c r="B8" s="3" t="str">
+        <f>VLOOKUP(A8,'Raw Data'!A:M,6,FALSE)</f>
+        <v>206 (32.9%)</v>
+      </c>
+      <c r="C8" s="3">
+        <f>VLOOKUP(A8,'Raw Data'!A:M,11,FALSE)</f>
+        <v>2922</v>
+      </c>
+      <c r="D8" s="3">
+        <f>VLOOKUP(A8,'Raw Data'!A:M,10,FALSE)</f>
+        <v>417</v>
+      </c>
+      <c r="E8" s="3">
+        <f>VLOOKUP(A8,'Raw Data'!A:M,8,FALSE)</f>
         <v>167377</v>
       </c>
-      <c r="F8">
-        <v>1588.7686706910249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F8" s="3">
+        <f>ROUND(E8*VLOOKUP(A8,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>85834</v>
+      </c>
+      <c r="G8" s="3">
+        <f>VLOOKUP(A8,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9">
-        <v>7737</v>
-      </c>
-      <c r="D9">
-        <v>1344</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="3" t="str">
+        <f>VLOOKUP(A9,'Raw Data'!A:M,6,FALSE)</f>
+        <v>38 (30.4%)</v>
+      </c>
+      <c r="C9" s="3">
+        <f>VLOOKUP(A9,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3994</v>
+      </c>
+      <c r="D9" s="3">
+        <f>VLOOKUP(A9,'Raw Data'!A:M,10,FALSE)</f>
+        <v>694</v>
+      </c>
+      <c r="E9" s="3">
+        <f>VLOOKUP(A9,'Raw Data'!A:M,8,FALSE)</f>
         <v>51056</v>
       </c>
-      <c r="F9">
-        <v>900.58419066328906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F9" s="3">
+        <f>ROUND(E9*VLOOKUP(A9,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>26358</v>
+      </c>
+      <c r="G9" s="3">
+        <f>VLOOKUP(A9,'Raw Data'!A:M,13,FALSE)</f>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10">
-        <v>2939</v>
-      </c>
-      <c r="D10">
-        <v>405</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="3" t="str">
+        <f>VLOOKUP(A10,'Raw Data'!A:M,6,FALSE)</f>
+        <v>66 (27.6%)</v>
+      </c>
+      <c r="C10" s="3">
+        <f>VLOOKUP(A10,'Raw Data'!A:M,11,FALSE)</f>
+        <v>1541</v>
+      </c>
+      <c r="D10" s="3">
+        <f>VLOOKUP(A10,'Raw Data'!A:M,10,FALSE)</f>
+        <v>212</v>
+      </c>
+      <c r="E10" s="3">
+        <f>VLOOKUP(A10,'Raw Data'!A:M,8,FALSE)</f>
         <v>26740</v>
       </c>
-      <c r="F10">
-        <v>1056.2277580071175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F10" s="3">
+        <f>ROUND(E10*VLOOKUP(A10,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>14015</v>
+      </c>
+      <c r="G10" s="3">
+        <f>VLOOKUP(A10,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11">
-        <v>8435</v>
-      </c>
-      <c r="D11">
-        <v>1308</v>
-      </c>
-      <c r="E11">
+      <c r="B11" s="3" t="str">
+        <f>VLOOKUP(A11,'Raw Data'!A:M,6,FALSE)</f>
+        <v>927 (36.7%)</v>
+      </c>
+      <c r="C11" s="3">
+        <f>VLOOKUP(A11,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4315</v>
+      </c>
+      <c r="D11" s="3">
+        <f>VLOOKUP(A11,'Raw Data'!A:M,10,FALSE)</f>
+        <v>669</v>
+      </c>
+      <c r="E11" s="3">
+        <f>VLOOKUP(A11,'Raw Data'!A:M,8,FALSE)</f>
         <v>1212581</v>
       </c>
-      <c r="F11">
-        <v>970.92392707741567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F11" s="3">
+        <f>ROUND(E11*VLOOKUP(A11,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>620246</v>
+      </c>
+      <c r="G11" s="3">
+        <f>VLOOKUP(A11,'Raw Data'!A:M,13,FALSE)</f>
+        <v>971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12">
-        <v>7707</v>
-      </c>
-      <c r="D12">
-        <v>1385</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="3" t="str">
+        <f>VLOOKUP(A12,'Raw Data'!A:M,6,FALSE)</f>
+        <v>427 (31.3%)</v>
+      </c>
+      <c r="C12" s="3">
+        <f>VLOOKUP(A12,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3956</v>
+      </c>
+      <c r="D12" s="3">
+        <f>VLOOKUP(A12,'Raw Data'!A:M,10,FALSE)</f>
+        <v>711</v>
+      </c>
+      <c r="E12" s="3">
+        <f>VLOOKUP(A12,'Raw Data'!A:M,8,FALSE)</f>
         <v>591438</v>
       </c>
-      <c r="F12">
-        <v>988.54846596746768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F12" s="3">
+        <f>ROUND(E12*VLOOKUP(A12,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>303613</v>
+      </c>
+      <c r="G12" s="3">
+        <f>VLOOKUP(A12,'Raw Data'!A:M,13,FALSE)</f>
+        <v>989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13">
-        <v>6019</v>
-      </c>
-      <c r="D13">
-        <v>284</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="3" t="str">
+        <f>VLOOKUP(A13,'Raw Data'!A:M,6,FALSE)</f>
+        <v>73 (30.9%)</v>
+      </c>
+      <c r="C13" s="3">
+        <f>VLOOKUP(A13,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3008</v>
+      </c>
+      <c r="D13" s="3">
+        <f>VLOOKUP(A13,'Raw Data'!A:M,10,FALSE)</f>
+        <v>142</v>
+      </c>
+      <c r="E13" s="3">
+        <f>VLOOKUP(A13,'Raw Data'!A:M,8,FALSE)</f>
         <v>20709</v>
       </c>
-      <c r="F13">
-        <v>198.516616263157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F13" s="3">
+        <f>ROUND(E13*VLOOKUP(A13,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>10349</v>
+      </c>
+      <c r="G13" s="3">
+        <f>VLOOKUP(A13,'Raw Data'!A:M,13,FALSE)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14">
-        <v>10762</v>
-      </c>
-      <c r="D14">
-        <v>2671</v>
-      </c>
-      <c r="E14">
+      <c r="B14" s="3" t="str">
+        <f>VLOOKUP(A14,'Raw Data'!A:M,6,FALSE)</f>
+        <v>49 (30.1%)</v>
+      </c>
+      <c r="C14" s="3">
+        <f>VLOOKUP(A14,'Raw Data'!A:M,11,FALSE)</f>
+        <v>5349</v>
+      </c>
+      <c r="D14" s="3">
+        <f>VLOOKUP(A14,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1328</v>
+      </c>
+      <c r="E14" s="3">
+        <f>VLOOKUP(A14,'Raw Data'!A:M,8,FALSE)</f>
         <v>130877</v>
       </c>
-      <c r="F14">
-        <v>741.63170375775269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F14" s="3">
+        <f>ROUND(E14*VLOOKUP(A14,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>65048</v>
+      </c>
+      <c r="G14" s="3">
+        <f>VLOOKUP(A14,'Raw Data'!A:M,13,FALSE)</f>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15">
-        <v>7264</v>
-      </c>
-      <c r="D15">
-        <v>1757</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="3" t="str">
+        <f>VLOOKUP(A15,'Raw Data'!A:M,6,FALSE)</f>
+        <v>515 (29.4%)</v>
+      </c>
+      <c r="C15" s="3">
+        <f>VLOOKUP(A15,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3691</v>
+      </c>
+      <c r="D15" s="3">
+        <f>VLOOKUP(A15,'Raw Data'!A:M,10,FALSE)</f>
+        <v>893</v>
+      </c>
+      <c r="E15" s="3">
+        <f>VLOOKUP(A15,'Raw Data'!A:M,8,FALSE)</f>
         <v>905069</v>
       </c>
-      <c r="F15">
-        <v>1297.1799463373916</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F15" s="3">
+        <f>ROUND(E15*VLOOKUP(A15,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>459893</v>
+      </c>
+      <c r="G15" s="3">
+        <f>VLOOKUP(A15,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16">
-        <v>9092</v>
-      </c>
-      <c r="D16">
-        <v>2365</v>
-      </c>
-      <c r="E16">
+      <c r="B16" s="3" t="str">
+        <f>VLOOKUP(A16,'Raw Data'!A:M,6,FALSE)</f>
+        <v>198 (26.9%)</v>
+      </c>
+      <c r="C16" s="3">
+        <f>VLOOKUP(A16,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4613</v>
+      </c>
+      <c r="D16" s="3">
+        <f>VLOOKUP(A16,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="E16" s="3">
+        <f>VLOOKUP(A16,'Raw Data'!A:M,8,FALSE)</f>
         <v>468219</v>
       </c>
-      <c r="F16">
-        <v>1111.4846942968791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F16" s="3">
+        <f>ROUND(E16*VLOOKUP(A16,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>237554</v>
+      </c>
+      <c r="G16" s="3">
+        <f>VLOOKUP(A16,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17">
-        <v>11272</v>
-      </c>
-      <c r="D17">
-        <v>3402</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="3" t="str">
+        <f>VLOOKUP(A17,'Raw Data'!A:M,6,FALSE)</f>
+        <v>79 (28.2%)</v>
+      </c>
+      <c r="C17" s="3">
+        <f>VLOOKUP(A17,'Raw Data'!A:M,11,FALSE)</f>
+        <v>5684</v>
+      </c>
+      <c r="D17" s="3">
+        <f>VLOOKUP(A17,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1715</v>
+      </c>
+      <c r="E17" s="3">
+        <f>VLOOKUP(A17,'Raw Data'!A:M,8,FALSE)</f>
         <v>268736</v>
       </c>
-      <c r="F17">
-        <v>1136.8522310725034</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F17" s="3">
+        <f>ROUND(E17*VLOOKUP(A17,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>135520</v>
+      </c>
+      <c r="G17" s="3">
+        <f>VLOOKUP(A17,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18">
-        <v>9903</v>
-      </c>
-      <c r="D18">
-        <v>2503</v>
-      </c>
-      <c r="E18">
+      <c r="B18" s="3" t="str">
+        <f>VLOOKUP(A18,'Raw Data'!A:M,6,FALSE)</f>
+        <v>83 (28.2%)</v>
+      </c>
+      <c r="C18" s="3">
+        <f>VLOOKUP(A18,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4971</v>
+      </c>
+      <c r="D18" s="3">
+        <f>VLOOKUP(A18,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1257</v>
+      </c>
+      <c r="E18" s="3">
+        <f>VLOOKUP(A18,'Raw Data'!A:M,8,FALSE)</f>
         <v>207784</v>
       </c>
-      <c r="F18">
-        <v>840.81092916820512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="F18" s="3">
+        <f>ROUND(E18*VLOOKUP(A18,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>104309</v>
+      </c>
+      <c r="G18" s="3">
+        <f>VLOOKUP(A18,'Raw Data'!A:M,13,FALSE)</f>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19">
-        <v>9009</v>
-      </c>
-      <c r="D19">
-        <v>1576</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="3" t="str">
+        <f>VLOOKUP(A19,'Raw Data'!A:M,6,FALSE)</f>
+        <v>155 (31.3%)</v>
+      </c>
+      <c r="C19" s="3">
+        <f>VLOOKUP(A19,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4575</v>
+      </c>
+      <c r="D19" s="3">
+        <f>VLOOKUP(A19,'Raw Data'!A:M,10,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="E19" s="3">
+        <f>VLOOKUP(A19,'Raw Data'!A:M,8,FALSE)</f>
         <v>244296</v>
       </c>
-      <c r="F19">
-        <v>539.78956263617829</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="F19" s="3">
+        <f>ROUND(E19*VLOOKUP(A19,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>124071</v>
+      </c>
+      <c r="G19" s="3">
+        <f>VLOOKUP(A19,'Raw Data'!A:M,13,FALSE)</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20">
-        <v>7050</v>
-      </c>
-      <c r="D20">
-        <v>1330</v>
-      </c>
-      <c r="E20">
+      <c r="B20" s="3" t="str">
+        <f>VLOOKUP(A20,'Raw Data'!A:M,6,FALSE)</f>
+        <v>216 (32.7%)</v>
+      </c>
+      <c r="C20" s="3">
+        <f>VLOOKUP(A20,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3606</v>
+      </c>
+      <c r="D20" s="3">
+        <f>VLOOKUP(A20,'Raw Data'!A:M,10,FALSE)</f>
+        <v>680</v>
+      </c>
+      <c r="E20" s="3">
+        <f>VLOOKUP(A20,'Raw Data'!A:M,8,FALSE)</f>
         <v>287261</v>
       </c>
-      <c r="F20">
-        <v>1525.1400244640442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="F20" s="3">
+        <f>ROUND(E20*VLOOKUP(A20,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>146937</v>
+      </c>
+      <c r="G20" s="3">
+        <f>VLOOKUP(A20,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21">
-        <v>8063</v>
-      </c>
-      <c r="D21">
-        <v>338</v>
-      </c>
-      <c r="E21">
+      <c r="B21" s="3" t="str">
+        <f>VLOOKUP(A21,'Raw Data'!A:M,6,FALSE)</f>
+        <v>57 (34.3%)</v>
+      </c>
+      <c r="C21" s="3">
+        <f>VLOOKUP(A21,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4111</v>
+      </c>
+      <c r="D21" s="3">
+        <f>VLOOKUP(A21,'Raw Data'!A:M,10,FALSE)</f>
+        <v>173</v>
+      </c>
+      <c r="E21" s="3">
+        <f>VLOOKUP(A21,'Raw Data'!A:M,8,FALSE)</f>
         <v>19285</v>
       </c>
-      <c r="F21">
-        <v>218.92220042962549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="F21" s="3">
+        <f>ROUND(E21*VLOOKUP(A21,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>9834</v>
+      </c>
+      <c r="G21" s="3">
+        <f>VLOOKUP(A21,'Raw Data'!A:M,13,FALSE)</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22">
-        <v>5637</v>
-      </c>
-      <c r="D22">
-        <v>749</v>
-      </c>
-      <c r="E22">
+      <c r="B22" s="3" t="str">
+        <f>VLOOKUP(A22,'Raw Data'!A:M,6,FALSE)</f>
+        <v>338 (31.5%)</v>
+      </c>
+      <c r="C22" s="3">
+        <f>VLOOKUP(A22,'Raw Data'!A:M,11,FALSE)</f>
+        <v>2903</v>
+      </c>
+      <c r="D22" s="3">
+        <f>VLOOKUP(A22,'Raw Data'!A:M,10,FALSE)</f>
+        <v>386</v>
+      </c>
+      <c r="E22" s="3">
+        <f>VLOOKUP(A22,'Raw Data'!A:M,8,FALSE)</f>
         <v>253073</v>
       </c>
-      <c r="F22">
-        <v>905.37798827691893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F22" s="3">
+        <f>ROUND(E22*VLOOKUP(A22,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>130316</v>
+      </c>
+      <c r="G22" s="3">
+        <f>VLOOKUP(A22,'Raw Data'!A:M,13,FALSE)</f>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23">
-        <v>6624</v>
-      </c>
-      <c r="D23">
-        <v>1056</v>
-      </c>
-      <c r="E23">
+      <c r="B23" s="3" t="str">
+        <f>VLOOKUP(A23,'Raw Data'!A:M,6,FALSE)</f>
+        <v>310 (29.8%)</v>
+      </c>
+      <c r="C23" s="3">
+        <f>VLOOKUP(A23,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3407</v>
+      </c>
+      <c r="D23" s="3">
+        <f>VLOOKUP(A23,'Raw Data'!A:M,10,FALSE)</f>
+        <v>543</v>
+      </c>
+      <c r="E23" s="3">
+        <f>VLOOKUP(A23,'Raw Data'!A:M,8,FALSE)</f>
         <v>327374</v>
       </c>
-      <c r="F23">
-        <v>1703.640943943708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="F23" s="3">
+        <f>ROUND(E23*VLOOKUP(A23,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>168402</v>
+      </c>
+      <c r="G23" s="3">
+        <f>VLOOKUP(A23,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24">
-        <v>7743</v>
-      </c>
-      <c r="D24">
-        <v>1285</v>
-      </c>
-      <c r="E24">
+      <c r="B24" s="3" t="str">
+        <f>VLOOKUP(A24,'Raw Data'!A:M,6,FALSE)</f>
+        <v>390 (30.2%)</v>
+      </c>
+      <c r="C24" s="3">
+        <f>VLOOKUP(A24,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3926</v>
+      </c>
+      <c r="D24" s="3">
+        <f>VLOOKUP(A24,'Raw Data'!A:M,10,FALSE)</f>
+        <v>652</v>
+      </c>
+      <c r="E24" s="3">
+        <f>VLOOKUP(A24,'Raw Data'!A:M,8,FALSE)</f>
         <v>501115</v>
       </c>
-      <c r="F24">
-        <v>1215.7630841587561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F24" s="3">
+        <f>ROUND(E24*VLOOKUP(A24,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>254115</v>
+      </c>
+      <c r="G24" s="3">
+        <f>VLOOKUP(A24,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25">
-        <v>8121</v>
-      </c>
-      <c r="D25">
-        <v>2243</v>
-      </c>
-      <c r="E25">
+      <c r="B25" s="3" t="str">
+        <f>VLOOKUP(A25,'Raw Data'!A:M,6,FALSE)</f>
+        <v>178 (25.8%)</v>
+      </c>
+      <c r="C25" s="3">
+        <f>VLOOKUP(A25,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4077</v>
+      </c>
+      <c r="D25" s="3">
+        <f>VLOOKUP(A25,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1126</v>
+      </c>
+      <c r="E25" s="3">
+        <f>VLOOKUP(A25,'Raw Data'!A:M,8,FALSE)</f>
         <v>399311</v>
       </c>
-      <c r="F25">
-        <v>878.75936499789714</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="F25" s="3">
+        <f>ROUND(E25*VLOOKUP(A25,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>200457</v>
+      </c>
+      <c r="G25" s="3">
+        <f>VLOOKUP(A25,'Raw Data'!A:M,13,FALSE)</f>
+        <v>879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26">
-        <v>9333</v>
-      </c>
-      <c r="D26">
-        <v>1880</v>
-      </c>
-      <c r="E26">
+      <c r="B26" s="3" t="str">
+        <f>VLOOKUP(A26,'Raw Data'!A:M,6,FALSE)</f>
+        <v>104 (32.5%)</v>
+      </c>
+      <c r="C26" s="3">
+        <f>VLOOKUP(A26,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4811</v>
+      </c>
+      <c r="D26" s="3">
+        <f>VLOOKUP(A26,'Raw Data'!A:M,10,FALSE)</f>
+        <v>969</v>
+      </c>
+      <c r="E26" s="3">
+        <f>VLOOKUP(A26,'Raw Data'!A:M,8,FALSE)</f>
         <v>195500</v>
       </c>
-      <c r="F26">
-        <v>1476.9901278395059</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="F26" s="3">
+        <f>ROUND(E26*VLOOKUP(A26,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>100773</v>
+      </c>
+      <c r="G26" s="3">
+        <f>VLOOKUP(A26,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27">
-        <v>8427</v>
-      </c>
-      <c r="D27">
-        <v>1928</v>
-      </c>
-      <c r="E27">
+      <c r="B27" s="3" t="str">
+        <f>VLOOKUP(A27,'Raw Data'!A:M,6,FALSE)</f>
+        <v>196 (27%)</v>
+      </c>
+      <c r="C27" s="3">
+        <f>VLOOKUP(A27,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4295</v>
+      </c>
+      <c r="D27" s="3">
+        <f>VLOOKUP(A27,'Raw Data'!A:M,10,FALSE)</f>
+        <v>983</v>
+      </c>
+      <c r="E27" s="3">
+        <f>VLOOKUP(A27,'Raw Data'!A:M,8,FALSE)</f>
         <v>377948</v>
       </c>
-      <c r="F27">
-        <v>830.48805210398461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="F27" s="3">
+        <f>ROUND(E27*VLOOKUP(A27,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>192634</v>
+      </c>
+      <c r="G27" s="3">
+        <f>VLOOKUP(A27,'Raw Data'!A:M,13,FALSE)</f>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28">
-        <v>9080</v>
-      </c>
-      <c r="D28">
-        <v>2035</v>
-      </c>
-      <c r="E28">
+      <c r="B28" s="3" t="str">
+        <f>VLOOKUP(A28,'Raw Data'!A:M,6,FALSE)</f>
+        <v>38 (32.5%)</v>
+      </c>
+      <c r="C28" s="3">
+        <f>VLOOKUP(A28,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4508</v>
+      </c>
+      <c r="D28" s="3">
+        <f>VLOOKUP(A28,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1010</v>
+      </c>
+      <c r="E28" s="3">
+        <f>VLOOKUP(A28,'Raw Data'!A:M,8,FALSE)</f>
         <v>77324</v>
       </c>
-      <c r="F28">
-        <v>829.31306332807753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="F28" s="3">
+        <f>ROUND(E28*VLOOKUP(A28,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>38393</v>
+      </c>
+      <c r="G28" s="3">
+        <f>VLOOKUP(A28,'Raw Data'!A:M,13,FALSE)</f>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29">
-        <v>9231</v>
-      </c>
-      <c r="D29">
-        <v>2534</v>
-      </c>
-      <c r="E29">
+      <c r="B29" s="3" t="str">
+        <f>VLOOKUP(A29,'Raw Data'!A:M,6,FALSE)</f>
+        <v>62 (29.7%)</v>
+      </c>
+      <c r="C29" s="3">
+        <f>VLOOKUP(A29,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4632</v>
+      </c>
+      <c r="D29" s="3">
+        <f>VLOOKUP(A29,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1271</v>
+      </c>
+      <c r="E29" s="3">
+        <f>VLOOKUP(A29,'Raw Data'!A:M,8,FALSE)</f>
         <v>157103</v>
       </c>
-      <c r="F29">
-        <v>783.21281047960508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="F29" s="3">
+        <f>ROUND(E29*VLOOKUP(A29,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>78827</v>
+      </c>
+      <c r="G29" s="3">
+        <f>VLOOKUP(A29,'Raw Data'!A:M,13,FALSE)</f>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30">
-        <v>9949</v>
-      </c>
-      <c r="D30">
-        <v>2101</v>
-      </c>
-      <c r="E30">
+      <c r="B30" s="3" t="str">
+        <f>VLOOKUP(A30,'Raw Data'!A:M,6,FALSE)</f>
+        <v>98 (32.1%)</v>
+      </c>
+      <c r="C30" s="3">
+        <f>VLOOKUP(A30,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4957</v>
+      </c>
+      <c r="D30" s="3">
+        <f>VLOOKUP(A30,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1047</v>
+      </c>
+      <c r="E30" s="3">
+        <f>VLOOKUP(A30,'Raw Data'!A:M,8,FALSE)</f>
         <v>205884</v>
       </c>
-      <c r="F30">
-        <v>917.81486899634558</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="F30" s="3">
+        <f>ROUND(E30*VLOOKUP(A30,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>102583</v>
+      </c>
+      <c r="G30" s="3">
+        <f>VLOOKUP(A30,'Raw Data'!A:M,13,FALSE)</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31">
-        <v>7494</v>
-      </c>
-      <c r="D31">
-        <v>680</v>
-      </c>
-      <c r="E31">
+      <c r="B31" s="3" t="str">
+        <f>VLOOKUP(A31,'Raw Data'!A:M,6,FALSE)</f>
+        <v>55 (30.4%)</v>
+      </c>
+      <c r="C31" s="3">
+        <f>VLOOKUP(A31,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3797</v>
+      </c>
+      <c r="D31" s="3">
+        <f>VLOOKUP(A31,'Raw Data'!A:M,10,FALSE)</f>
+        <v>344</v>
+      </c>
+      <c r="E31" s="3">
+        <f>VLOOKUP(A31,'Raw Data'!A:M,8,FALSE)</f>
         <v>37388</v>
       </c>
-      <c r="F31">
-        <v>483.60462373201227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="F31" s="3">
+        <f>ROUND(E31*VLOOKUP(A31,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>18940</v>
+      </c>
+      <c r="G31" s="3">
+        <f>VLOOKUP(A31,'Raw Data'!A:M,13,FALSE)</f>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32">
-        <v>6536</v>
-      </c>
-      <c r="D32">
-        <v>927</v>
-      </c>
-      <c r="E32">
+      <c r="B32" s="3" t="str">
+        <f>VLOOKUP(A32,'Raw Data'!A:M,6,FALSE)</f>
+        <v>470 (34.5%)</v>
+      </c>
+      <c r="C32" s="3">
+        <f>VLOOKUP(A32,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3345</v>
+      </c>
+      <c r="D32" s="3">
+        <f>VLOOKUP(A32,'Raw Data'!A:M,10,FALSE)</f>
+        <v>474</v>
+      </c>
+      <c r="E32" s="3">
+        <f>VLOOKUP(A32,'Raw Data'!A:M,8,FALSE)</f>
         <v>435763</v>
       </c>
-      <c r="F32">
-        <v>2045.5253137546003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="F32" s="3">
+        <f>ROUND(E32*VLOOKUP(A32,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>223011</v>
+      </c>
+      <c r="G32" s="3">
+        <f>VLOOKUP(A32,'Raw Data'!A:M,13,FALSE)</f>
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33">
-        <v>9482</v>
-      </c>
-      <c r="D33">
-        <v>1615</v>
-      </c>
-      <c r="E33">
+      <c r="B33" s="3" t="str">
+        <f>VLOOKUP(A33,'Raw Data'!A:M,6,FALSE)</f>
+        <v>81 (36.7%)</v>
+      </c>
+      <c r="C33" s="3">
+        <f>VLOOKUP(A33,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4777</v>
+      </c>
+      <c r="D33" s="3">
+        <f>VLOOKUP(A33,'Raw Data'!A:M,10,FALSE)</f>
+        <v>814</v>
+      </c>
+      <c r="E33" s="3">
+        <f>VLOOKUP(A33,'Raw Data'!A:M,8,FALSE)</f>
         <v>130808</v>
       </c>
-      <c r="F33">
-        <v>1040.3542931317527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="F33" s="3">
+        <f>ROUND(E33*VLOOKUP(A33,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>65898</v>
+      </c>
+      <c r="G33" s="3">
+        <f>VLOOKUP(A33,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34">
-        <v>5936</v>
-      </c>
-      <c r="D34">
-        <v>767</v>
-      </c>
-      <c r="E34">
+      <c r="B34" s="3" t="str">
+        <f>VLOOKUP(A34,'Raw Data'!A:M,6,FALSE)</f>
+        <v>1117 (33.9%)</v>
+      </c>
+      <c r="C34" s="3">
+        <f>VLOOKUP(A34,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3054</v>
+      </c>
+      <c r="D34" s="3">
+        <f>VLOOKUP(A34,'Raw Data'!A:M,10,FALSE)</f>
+        <v>395</v>
+      </c>
+      <c r="E34" s="3">
+        <f>VLOOKUP(A34,'Raw Data'!A:M,8,FALSE)</f>
         <v>857049</v>
       </c>
-      <c r="F34">
-        <v>1871.2186280612691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="F34" s="3">
+        <f>ROUND(E34*VLOOKUP(A34,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>440869</v>
+      </c>
+      <c r="G34" s="3">
+        <f>VLOOKUP(A34,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35">
-        <v>8049</v>
-      </c>
-      <c r="D35">
-        <v>1386</v>
-      </c>
-      <c r="E35">
+      <c r="B35" s="3" t="str">
+        <f>VLOOKUP(A35,'Raw Data'!A:M,6,FALSE)</f>
+        <v>349 (27.1%)</v>
+      </c>
+      <c r="C35" s="3">
+        <f>VLOOKUP(A35,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4132</v>
+      </c>
+      <c r="D35" s="3">
+        <f>VLOOKUP(A35,'Raw Data'!A:M,10,FALSE)</f>
+        <v>711</v>
+      </c>
+      <c r="E35" s="3">
+        <f>VLOOKUP(A35,'Raw Data'!A:M,8,FALSE)</f>
         <v>483647</v>
       </c>
-      <c r="F35">
-        <v>600.96078605670823</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="F35" s="3">
+        <f>ROUND(E35*VLOOKUP(A35,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>248279</v>
+      </c>
+      <c r="G35" s="3">
+        <f>VLOOKUP(A35,'Raw Data'!A:M,13,FALSE)</f>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36">
-        <v>10412</v>
-      </c>
-      <c r="D36">
-        <v>4743</v>
-      </c>
-      <c r="E36">
+      <c r="B36" s="3" t="str">
+        <f>VLOOKUP(A36,'Raw Data'!A:M,6,FALSE)</f>
+        <v>19 (26%)</v>
+      </c>
+      <c r="C36" s="3">
+        <f>VLOOKUP(A36,'Raw Data'!A:M,11,FALSE)</f>
+        <v>5052</v>
+      </c>
+      <c r="D36" s="3">
+        <f>VLOOKUP(A36,'Raw Data'!A:M,10,FALSE)</f>
+        <v>2301</v>
+      </c>
+      <c r="E36" s="3">
+        <f>VLOOKUP(A36,'Raw Data'!A:M,8,FALSE)</f>
         <v>90116</v>
       </c>
-      <c r="F36">
-        <v>1622.2318120579321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="F36" s="3">
+        <f>ROUND(E36*VLOOKUP(A36,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>43724</v>
+      </c>
+      <c r="G36" s="3">
+        <f>VLOOKUP(A36,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37">
-        <v>8012</v>
-      </c>
-      <c r="D37">
-        <v>1520</v>
-      </c>
-      <c r="E37">
+      <c r="B37" s="3" t="str">
+        <f>VLOOKUP(A37,'Raw Data'!A:M,6,FALSE)</f>
+        <v>414 (28.4%)</v>
+      </c>
+      <c r="C37" s="3">
+        <f>VLOOKUP(A37,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4084</v>
+      </c>
+      <c r="D37" s="3">
+        <f>VLOOKUP(A37,'Raw Data'!A:M,10,FALSE)</f>
+        <v>775</v>
+      </c>
+      <c r="E37" s="3">
+        <f>VLOOKUP(A37,'Raw Data'!A:M,8,FALSE)</f>
         <v>629354</v>
       </c>
-      <c r="F37">
-        <v>694.82055844170623</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="F37" s="3">
+        <f>ROUND(E37*VLOOKUP(A37,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>320772</v>
+      </c>
+      <c r="G37" s="3">
+        <f>VLOOKUP(A37,'Raw Data'!A:M,13,FALSE)</f>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38">
-        <v>11076</v>
-      </c>
-      <c r="D38">
-        <v>2214</v>
-      </c>
-      <c r="E38">
+      <c r="B38" s="3" t="str">
+        <f>VLOOKUP(A38,'Raw Data'!A:M,6,FALSE)</f>
+        <v>119 (33.4%)</v>
+      </c>
+      <c r="C38" s="3">
+        <f>VLOOKUP(A38,'Raw Data'!A:M,11,FALSE)</f>
+        <v>5600</v>
+      </c>
+      <c r="D38" s="3">
+        <f>VLOOKUP(A38,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1119</v>
+      </c>
+      <c r="E38" s="3">
+        <f>VLOOKUP(A38,'Raw Data'!A:M,8,FALSE)</f>
         <v>263434</v>
       </c>
-      <c r="F38">
-        <v>562.51000179810455</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="F38" s="3">
+        <f>ROUND(E38*VLOOKUP(A38,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>133182</v>
+      </c>
+      <c r="G38" s="3">
+        <f>VLOOKUP(A38,'Raw Data'!A:M,13,FALSE)</f>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39">
-        <v>7067</v>
-      </c>
-      <c r="D39">
-        <v>653</v>
-      </c>
-      <c r="E39">
+      <c r="B39" s="3" t="str">
+        <f>VLOOKUP(A39,'Raw Data'!A:M,6,FALSE)</f>
+        <v>159 (26.8%)</v>
+      </c>
+      <c r="C39" s="3">
+        <f>VLOOKUP(A39,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3560</v>
+      </c>
+      <c r="D39" s="3">
+        <f>VLOOKUP(A39,'Raw Data'!A:M,10,FALSE)</f>
+        <v>329</v>
+      </c>
+      <c r="E39" s="3">
+        <f>VLOOKUP(A39,'Raw Data'!A:M,8,FALSE)</f>
         <v>103755</v>
       </c>
-      <c r="F39">
-        <v>321.42570794787702</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="F39" s="3">
+        <f>ROUND(E39*VLOOKUP(A39,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>52270</v>
+      </c>
+      <c r="G39" s="3">
+        <f>VLOOKUP(A39,'Raw Data'!A:M,13,FALSE)</f>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40">
-        <v>7578</v>
-      </c>
-      <c r="D40">
-        <v>1046</v>
-      </c>
-      <c r="E40">
+      <c r="B40" s="3" t="str">
+        <f>VLOOKUP(A40,'Raw Data'!A:M,6,FALSE)</f>
+        <v>544 (32.2%)</v>
+      </c>
+      <c r="C40" s="3">
+        <f>VLOOKUP(A40,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3866</v>
+      </c>
+      <c r="D40" s="3">
+        <f>VLOOKUP(A40,'Raw Data'!A:M,10,FALSE)</f>
+        <v>534</v>
+      </c>
+      <c r="E40" s="3">
+        <f>VLOOKUP(A40,'Raw Data'!A:M,8,FALSE)</f>
         <v>569099</v>
       </c>
-      <c r="F40">
-        <v>1084.5313735250199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="F40" s="3">
+        <f>ROUND(E40*VLOOKUP(A40,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>290357</v>
+      </c>
+      <c r="G40" s="3">
+        <f>VLOOKUP(A40,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41">
-        <v>5594</v>
-      </c>
-      <c r="D41">
-        <v>1543</v>
-      </c>
-      <c r="E41">
+      <c r="B41" s="3" t="str">
+        <f>VLOOKUP(A41,'Raw Data'!A:M,6,FALSE)</f>
+        <v>52 (27.5%)</v>
+      </c>
+      <c r="C41" s="3">
+        <f>VLOOKUP(A41,'Raw Data'!A:M,11,FALSE)</f>
+        <v>2864</v>
+      </c>
+      <c r="D41" s="3">
+        <f>VLOOKUP(A41,'Raw Data'!A:M,10,FALSE)</f>
+        <v>790</v>
+      </c>
+      <c r="E41" s="3">
+        <f>VLOOKUP(A41,'Raw Data'!A:M,8,FALSE)</f>
         <v>80231</v>
       </c>
-      <c r="F41">
-        <v>1579.46506261113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="F41" s="3">
+        <f>ROUND(E41*VLOOKUP(A41,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>41081</v>
+      </c>
+      <c r="G41" s="3">
+        <f>VLOOKUP(A41,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42">
-        <v>8487</v>
-      </c>
-      <c r="D42">
-        <v>1414</v>
-      </c>
-      <c r="E42">
+      <c r="B42" s="3" t="str">
+        <f>VLOOKUP(A42,'Raw Data'!A:M,6,FALSE)</f>
+        <v>195 (32.6%)</v>
+      </c>
+      <c r="C42" s="3">
+        <f>VLOOKUP(A42,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4366</v>
+      </c>
+      <c r="D42" s="3">
+        <f>VLOOKUP(A42,'Raw Data'!A:M,10,FALSE)</f>
+        <v>727</v>
+      </c>
+      <c r="E42" s="3">
+        <f>VLOOKUP(A42,'Raw Data'!A:M,8,FALSE)</f>
         <v>275733</v>
       </c>
-      <c r="F42">
-        <v>976.00218725197942</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="F42" s="3">
+        <f>ROUND(E42*VLOOKUP(A42,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>141838</v>
+      </c>
+      <c r="G42" s="3">
+        <f>VLOOKUP(A42,'Raw Data'!A:M,13,FALSE)</f>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43">
-        <v>9287</v>
-      </c>
-      <c r="D43">
-        <v>3657</v>
-      </c>
-      <c r="E43">
+      <c r="B43" s="3" t="str">
+        <f>VLOOKUP(A43,'Raw Data'!A:M,6,FALSE)</f>
+        <v>26 (27.4%)</v>
+      </c>
+      <c r="C43" s="3">
+        <f>VLOOKUP(A43,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4600</v>
+      </c>
+      <c r="D43" s="3">
+        <f>VLOOKUP(A43,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1811</v>
+      </c>
+      <c r="E43" s="3">
+        <f>VLOOKUP(A43,'Raw Data'!A:M,8,FALSE)</f>
         <v>95074</v>
       </c>
-      <c r="F43">
-        <v>1565.3549875995773</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="F43" s="3">
+        <f>ROUND(E43*VLOOKUP(A43,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>47090</v>
+      </c>
+      <c r="G43" s="3">
+        <f>VLOOKUP(A43,'Raw Data'!A:M,13,FALSE)</f>
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44">
-        <v>7918</v>
-      </c>
-      <c r="D44">
-        <v>1801</v>
-      </c>
-      <c r="E44">
+      <c r="B44" s="3" t="str">
+        <f>VLOOKUP(A44,'Raw Data'!A:M,6,FALSE)</f>
+        <v>294 (34.4%)</v>
+      </c>
+      <c r="C44" s="3">
+        <f>VLOOKUP(A44,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4056</v>
+      </c>
+      <c r="D44" s="3">
+        <f>VLOOKUP(A44,'Raw Data'!A:M,10,FALSE)</f>
+        <v>923</v>
+      </c>
+      <c r="E44" s="3">
+        <f>VLOOKUP(A44,'Raw Data'!A:M,8,FALSE)</f>
         <v>529578</v>
       </c>
-      <c r="F44">
-        <v>906.36627773863393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="F44" s="3">
+        <f>ROUND(E44*VLOOKUP(A44,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>271300</v>
+      </c>
+      <c r="G44" s="3">
+        <f>VLOOKUP(A44,'Raw Data'!A:M,13,FALSE)</f>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B45" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45">
-        <v>8676</v>
-      </c>
-      <c r="D45">
-        <v>1686</v>
-      </c>
-      <c r="E45">
+      <c r="B45" s="3" t="str">
+        <f>VLOOKUP(A45,'Raw Data'!A:M,6,FALSE)</f>
+        <v>952 (28.8%)</v>
+      </c>
+      <c r="C45" s="3">
+        <f>VLOOKUP(A45,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4369</v>
+      </c>
+      <c r="D45" s="3">
+        <f>VLOOKUP(A45,'Raw Data'!A:M,10,FALSE)</f>
+        <v>849</v>
+      </c>
+      <c r="E45" s="3">
+        <f>VLOOKUP(A45,'Raw Data'!A:M,8,FALSE)</f>
         <v>1604991</v>
       </c>
-      <c r="F45">
-        <v>903.64347474190015</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="F45" s="3">
+        <f>ROUND(E45*VLOOKUP(A45,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>808153</v>
+      </c>
+      <c r="G45" s="3">
+        <f>VLOOKUP(A45,'Raw Data'!A:M,13,FALSE)</f>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46">
-        <v>9325</v>
-      </c>
-      <c r="D46">
-        <v>2503</v>
-      </c>
-      <c r="E46">
+      <c r="B46" s="3" t="str">
+        <f>VLOOKUP(A46,'Raw Data'!A:M,6,FALSE)</f>
+        <v>101 (29.8%)</v>
+      </c>
+      <c r="C46" s="3">
+        <f>VLOOKUP(A46,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4628</v>
+      </c>
+      <c r="D46" s="3">
+        <f>VLOOKUP(A46,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1242</v>
+      </c>
+      <c r="E46" s="3">
+        <f>VLOOKUP(A46,'Raw Data'!A:M,8,FALSE)</f>
         <v>252783</v>
       </c>
-      <c r="F46">
-        <v>367.27303096102162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="F46" s="3">
+        <f>ROUND(E46*VLOOKUP(A46,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>125451</v>
+      </c>
+      <c r="G46" s="3">
+        <f>VLOOKUP(A46,'Raw Data'!A:M,13,FALSE)</f>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47">
-        <v>6022</v>
-      </c>
-      <c r="D47">
-        <v>225</v>
-      </c>
-      <c r="E47">
+      <c r="B47" s="3" t="str">
+        <f>VLOOKUP(A47,'Raw Data'!A:M,6,FALSE)</f>
+        <v>29 (27.9%)</v>
+      </c>
+      <c r="C47" s="3">
+        <f>VLOOKUP(A47,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3060</v>
+      </c>
+      <c r="D47" s="3">
+        <f>VLOOKUP(A47,'Raw Data'!A:M,10,FALSE)</f>
+        <v>114</v>
+      </c>
+      <c r="E47" s="3">
+        <f>VLOOKUP(A47,'Raw Data'!A:M,8,FALSE)</f>
         <v>6534</v>
       </c>
-      <c r="F47">
-        <v>177.23107579263007</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="F47" s="3">
+        <f>ROUND(E47*VLOOKUP(A47,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>3320</v>
+      </c>
+      <c r="G47" s="3">
+        <f>VLOOKUP(A47,'Raw Data'!A:M,13,FALSE)</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48">
-        <v>7736</v>
-      </c>
-      <c r="D48">
-        <v>901</v>
-      </c>
-      <c r="E48">
+      <c r="B48" s="3" t="str">
+        <f>VLOOKUP(A48,'Raw Data'!A:M,6,FALSE)</f>
+        <v>345 (31.3%)</v>
+      </c>
+      <c r="C48" s="3">
+        <f>VLOOKUP(A48,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3929</v>
+      </c>
+      <c r="D48" s="3">
+        <f>VLOOKUP(A48,'Raw Data'!A:M,10,FALSE)</f>
+        <v>458</v>
+      </c>
+      <c r="E48" s="3">
+        <f>VLOOKUP(A48,'Raw Data'!A:M,8,FALSE)</f>
         <v>310890</v>
       </c>
-      <c r="F48">
-        <v>546.39894448967118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="F48" s="3">
+        <f>ROUND(E48*VLOOKUP(A48,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>157892</v>
+      </c>
+      <c r="G48" s="3">
+        <f>VLOOKUP(A48,'Raw Data'!A:M,13,FALSE)</f>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B49" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49">
-        <v>8652</v>
-      </c>
-      <c r="D49">
-        <v>878</v>
-      </c>
-      <c r="E49">
+      <c r="B49" s="3" t="str">
+        <f>VLOOKUP(A49,'Raw Data'!A:M,6,FALSE)</f>
+        <v>258 (29.6%)</v>
+      </c>
+      <c r="C49" s="3">
+        <f>VLOOKUP(A49,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4326</v>
+      </c>
+      <c r="D49" s="3">
+        <f>VLOOKUP(A49,'Raw Data'!A:M,10,FALSE)</f>
+        <v>439</v>
+      </c>
+      <c r="E49" s="3">
+        <f>VLOOKUP(A49,'Raw Data'!A:M,8,FALSE)</f>
         <v>226635</v>
       </c>
-      <c r="F49">
-        <v>412.17599198260632</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="F49" s="3">
+        <f>ROUND(E49*VLOOKUP(A49,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>113318</v>
+      </c>
+      <c r="G49" s="3">
+        <f>VLOOKUP(A49,'Raw Data'!A:M,13,FALSE)</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B50" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50">
-        <v>8984</v>
-      </c>
-      <c r="D50">
-        <v>1128</v>
-      </c>
-      <c r="E50">
+      <c r="B50" s="3" t="str">
+        <f>VLOOKUP(A50,'Raw Data'!A:M,6,FALSE)</f>
+        <v>65 (32.3%)</v>
+      </c>
+      <c r="C50" s="3">
+        <f>VLOOKUP(A50,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4533</v>
+      </c>
+      <c r="D50" s="3">
+        <f>VLOOKUP(A50,'Raw Data'!A:M,10,FALSE)</f>
+        <v>569</v>
+      </c>
+      <c r="E50" s="3">
+        <f>VLOOKUP(A50,'Raw Data'!A:M,8,FALSE)</f>
         <v>73337</v>
       </c>
-      <c r="F50">
-        <v>625.20627930827482</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="F50" s="3">
+        <f>ROUND(E50*VLOOKUP(A50,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>37002</v>
+      </c>
+      <c r="G50" s="3">
+        <f>VLOOKUP(A50,'Raw Data'!A:M,13,FALSE)</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B51" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51">
-        <v>9377</v>
-      </c>
-      <c r="D51">
-        <v>3252</v>
-      </c>
-      <c r="E51">
+      <c r="B51" s="3" t="str">
+        <f>VLOOKUP(A51,'Raw Data'!A:M,6,FALSE)</f>
+        <v>152 (24.5%)</v>
+      </c>
+      <c r="C51" s="3">
+        <f>VLOOKUP(A51,'Raw Data'!A:M,11,FALSE)</f>
+        <v>4714</v>
+      </c>
+      <c r="D51" s="3">
+        <f>VLOOKUP(A51,'Raw Data'!A:M,10,FALSE)</f>
+        <v>1635</v>
+      </c>
+      <c r="E51" s="3">
+        <f>VLOOKUP(A51,'Raw Data'!A:M,8,FALSE)</f>
         <v>494353</v>
       </c>
-      <c r="F51">
-        <v>817.21100384679153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="F51" s="3">
+        <f>ROUND(E51*VLOOKUP(A51,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>248543</v>
+      </c>
+      <c r="G51" s="3">
+        <f>VLOOKUP(A51,'Raw Data'!A:M,13,FALSE)</f>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B52" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52">
-        <v>7807</v>
-      </c>
-      <c r="D52">
-        <v>2006</v>
-      </c>
-      <c r="E52">
+      <c r="B52" s="3" t="str">
+        <f>VLOOKUP(A52,'Raw Data'!A:M,6,FALSE)</f>
+        <v>21 (28.4%)</v>
+      </c>
+      <c r="C52" s="3">
+        <f>VLOOKUP(A52,'Raw Data'!A:M,11,FALSE)</f>
+        <v>3854</v>
+      </c>
+      <c r="D52" s="3">
+        <f>VLOOKUP(A52,'Raw Data'!A:M,10,FALSE)</f>
+        <v>990</v>
+      </c>
+      <c r="E52" s="3">
+        <f>VLOOKUP(A52,'Raw Data'!A:M,8,FALSE)</f>
         <v>42118</v>
       </c>
-      <c r="F52">
-        <v>607.53762059881399</v>
+      <c r="F52" s="3">
+        <f>ROUND(E52*VLOOKUP(A52,'Raw Data'!A:M,9,FALSE),0)</f>
+        <v>20789</v>
+      </c>
+      <c r="G52" s="3">
+        <f>VLOOKUP(A52,'Raw Data'!A:M,13,FALSE)</f>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F52">
+  <sortState ref="A2:G52">
     <sortCondition ref="A2:A52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DecemberVersions/ObGynTables.xlsx
+++ b/DecemberVersions/ObGynTables.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="125">
   <si>
     <t>region</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>Female COVID-19 Cases</t>
+  </si>
+  <si>
+    <t>VaccinationRate</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Vaccination Rate (%)</t>
   </si>
 </sst>
 </file>
@@ -724,7 +733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -854,6 +863,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -899,13 +919,16 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1813,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,9 +1851,10 @@
     <col min="9" max="9" width="10.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1870,8 +1894,11 @@
       <c r="M1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1916,8 +1943,11 @@
         <f>ROUND(L2/G2*1000000,0)</f>
         <v>898</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="3">
+        <v>0.31273322999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1962,8 +1992,11 @@
         <f t="shared" ref="M3:M52" si="3">ROUND(L3/G3*1000000,0)</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="3">
+        <v>1.6062541530000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2008,8 +2041,11 @@
         <f t="shared" si="3"/>
         <v>1112</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="3">
+        <v>0.32974390999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2054,8 +2090,11 @@
         <f t="shared" si="3"/>
         <v>1093</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="3">
+        <v>0.53762031600000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2100,8 +2139,11 @@
         <f t="shared" si="3"/>
         <v>577</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="3">
+        <v>0.32410455700000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2146,8 +2188,11 @@
         <f t="shared" si="3"/>
         <v>769</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="3">
+        <v>1.1102390680000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2192,8 +2237,11 @@
         <f t="shared" si="3"/>
         <v>1589</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="3">
+        <v>0.46148747499999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2238,8 +2286,11 @@
         <f t="shared" si="3"/>
         <v>901</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="3">
+        <v>0.74445535900000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2284,8 +2335,11 @@
         <f t="shared" si="3"/>
         <v>1056</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="3">
+        <v>0.64056939499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2384,11 @@
         <f t="shared" si="3"/>
         <v>971</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="3">
+        <v>0.55759579000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2376,8 +2433,11 @@
         <f t="shared" si="3"/>
         <v>989</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="3">
+        <v>0.24725594400000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2422,8 +2482,11 @@
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2468,8 +2531,11 @@
         <f t="shared" si="3"/>
         <v>742</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="3">
+        <v>0.57569089699999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2514,8 +2580,11 @@
         <f t="shared" si="3"/>
         <v>1297</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="3">
+        <v>0.80211353900000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2560,8 +2629,11 @@
         <f t="shared" si="3"/>
         <v>1111</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="3">
+        <v>0.59773309699999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2606,8 +2678,11 @@
         <f t="shared" si="3"/>
         <v>1137</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="3">
+        <v>0.26615269600000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2652,8 +2727,11 @@
         <f t="shared" si="3"/>
         <v>841</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="3">
+        <v>6.3129512999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2698,8 +2776,11 @@
         <f t="shared" si="3"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="3">
+        <v>0.250469518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2744,8 +2825,11 @@
         <f t="shared" si="3"/>
         <v>1525</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="3">
+        <v>0.70314813600000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2790,8 +2874,11 @@
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="3">
+        <v>1.275203138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2836,8 +2923,11 @@
         <f t="shared" si="3"/>
         <v>905</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="3">
+        <v>0.327961634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -2882,8 +2972,11 @@
         <f t="shared" si="3"/>
         <v>1704</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="3">
+        <v>0.51603268300000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2928,8 +3021,11 @@
         <f t="shared" si="3"/>
         <v>1216</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="3">
+        <v>0.37674350200000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2974,8 +3070,11 @@
         <f t="shared" si="3"/>
         <v>879</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="3">
+        <v>0.20633291300000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -3020,8 +3119,11 @@
         <f t="shared" si="3"/>
         <v>1477</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="3">
+        <v>0.150679111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -3066,8 +3168,11 @@
         <f t="shared" si="3"/>
         <v>830</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="3">
+        <v>0.37541716200000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3112,8 +3217,11 @@
         <f t="shared" si="3"/>
         <v>829</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="3">
+        <v>0.69724425199999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -3158,8 +3266,11 @@
         <f t="shared" si="3"/>
         <v>783</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="3">
+        <v>0.80145840300000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3204,8 +3315,11 @@
         <f t="shared" si="3"/>
         <v>918</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="3">
+        <v>0.50115657899999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3250,8 +3364,11 @@
         <f t="shared" si="3"/>
         <v>484</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="3">
+        <v>0.28153750900000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3296,8 +3413,11 @@
         <f t="shared" si="3"/>
         <v>2046</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="3">
+        <v>0.40971121100000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3342,8 +3462,11 @@
         <f t="shared" si="3"/>
         <v>1040</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="3">
+        <v>0.66811743599999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3388,8 +3511,11 @@
         <f t="shared" si="3"/>
         <v>1871</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="3">
+        <v>0.58058538999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -3434,8 +3560,11 @@
         <f t="shared" si="3"/>
         <v>601</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="3">
+        <v>0.235954155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -3480,8 +3609,11 @@
         <f t="shared" si="3"/>
         <v>1622</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="3">
+        <v>1.7090666050000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -3526,8 +3658,11 @@
         <f t="shared" si="3"/>
         <v>695</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="3">
+        <v>0.44241984699999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -3572,8 +3707,11 @@
         <f t="shared" si="3"/>
         <v>563</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="3">
+        <v>0.75385977500000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3618,8 +3756,11 @@
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="3">
+        <v>0.34657661299999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +3805,11 @@
         <f t="shared" si="3"/>
         <v>1085</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="3">
+        <v>0.44975648800000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -3710,8 +3854,11 @@
         <f t="shared" si="3"/>
         <v>1579</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="3">
+        <v>0.66886089400000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3756,8 +3903,11 @@
         <f t="shared" si="3"/>
         <v>976</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="3">
+        <v>0.38638829000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -3802,8 +3952,11 @@
         <f t="shared" si="3"/>
         <v>1565</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="3">
+        <v>1.554020049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -3848,8 +4001,11 @@
         <f t="shared" si="3"/>
         <v>906</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="3">
+        <v>0.78668929600000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -3894,8 +4050,11 @@
         <f t="shared" si="3"/>
         <v>904</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="3">
+        <v>0.48689645500000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -3940,8 +4099,11 @@
         <f t="shared" si="3"/>
         <v>367</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="3">
+        <v>0.53752828100000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -3986,8 +4148,11 @@
         <f t="shared" si="3"/>
         <v>177</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="3">
+        <v>0.69838623899999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -4032,8 +4197,11 @@
         <f t="shared" si="3"/>
         <v>546</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="3">
+        <v>0.448155146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -4078,8 +4246,11 @@
         <f t="shared" si="3"/>
         <v>412</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="3">
+        <v>0.39810945800000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -4124,8 +4295,11 @@
         <f t="shared" si="3"/>
         <v>625</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="3">
+        <v>1.643312342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -4170,8 +4344,11 @@
         <f t="shared" si="3"/>
         <v>817</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="3">
+        <v>0.17816610399999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -4215,6 +4392,9 @@
       <c r="M52" s="3">
         <f t="shared" si="3"/>
         <v>608</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.49589609200000001</v>
       </c>
     </row>
   </sheetData>
@@ -4224,10 +4404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4238,7 +4418,7 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -4260,8 +4440,11 @@
       <c r="G1" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -4289,8 +4472,12 @@
         <f>VLOOKUP(A2,'Raw Data'!A:M,13,FALSE)</f>
         <v>898</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3">
+        <f>VLOOKUP(A2,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.31273322999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -4318,8 +4505,12 @@
         <f>VLOOKUP(A3,'Raw Data'!A:M,13,FALSE)</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3">
+        <f>VLOOKUP(A3,'Raw Data'!A:N,14,FALSE)</f>
+        <v>1.6062541530000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -4347,8 +4538,12 @@
         <f>VLOOKUP(A4,'Raw Data'!A:M,13,FALSE)</f>
         <v>1112</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3">
+        <f>VLOOKUP(A4,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.32974390999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -4376,8 +4571,12 @@
         <f>VLOOKUP(A5,'Raw Data'!A:M,13,FALSE)</f>
         <v>1093</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <f>VLOOKUP(A5,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.53762031600000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -4405,8 +4604,12 @@
         <f>VLOOKUP(A6,'Raw Data'!A:M,13,FALSE)</f>
         <v>577</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <f>VLOOKUP(A6,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.32410455700000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -4434,8 +4637,12 @@
         <f>VLOOKUP(A7,'Raw Data'!A:M,13,FALSE)</f>
         <v>769</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <f>VLOOKUP(A7,'Raw Data'!A:N,14,FALSE)</f>
+        <v>1.1102390680000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -4463,8 +4670,12 @@
         <f>VLOOKUP(A8,'Raw Data'!A:M,13,FALSE)</f>
         <v>1589</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3">
+        <f>VLOOKUP(A8,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.46148747499999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -4492,8 +4703,12 @@
         <f>VLOOKUP(A9,'Raw Data'!A:M,13,FALSE)</f>
         <v>901</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3">
+        <f>VLOOKUP(A9,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.74445535900000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -4521,8 +4736,12 @@
         <f>VLOOKUP(A10,'Raw Data'!A:M,13,FALSE)</f>
         <v>1056</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3">
+        <f>VLOOKUP(A10,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.64056939499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -4550,8 +4769,12 @@
         <f>VLOOKUP(A11,'Raw Data'!A:M,13,FALSE)</f>
         <v>971</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3">
+        <f>VLOOKUP(A11,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.55759579000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -4579,8 +4802,12 @@
         <f>VLOOKUP(A12,'Raw Data'!A:M,13,FALSE)</f>
         <v>989</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <f>VLOOKUP(A12,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.24725594400000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -4608,8 +4835,12 @@
         <f>VLOOKUP(A13,'Raw Data'!A:M,13,FALSE)</f>
         <v>199</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="str">
+        <f>VLOOKUP(A13,'Raw Data'!A:N,14,FALSE)</f>
+        <v>–</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -4637,8 +4868,12 @@
         <f>VLOOKUP(A14,'Raw Data'!A:M,13,FALSE)</f>
         <v>742</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3">
+        <f>VLOOKUP(A14,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.57569089699999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -4666,8 +4901,12 @@
         <f>VLOOKUP(A15,'Raw Data'!A:M,13,FALSE)</f>
         <v>1297</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3">
+        <f>VLOOKUP(A15,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.80211353900000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -4695,8 +4934,12 @@
         <f>VLOOKUP(A16,'Raw Data'!A:M,13,FALSE)</f>
         <v>1111</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3">
+        <f>VLOOKUP(A16,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.59773309699999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -4724,8 +4967,12 @@
         <f>VLOOKUP(A17,'Raw Data'!A:M,13,FALSE)</f>
         <v>1137</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3">
+        <f>VLOOKUP(A17,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.26615269600000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -4753,8 +5000,12 @@
         <f>VLOOKUP(A18,'Raw Data'!A:M,13,FALSE)</f>
         <v>841</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="3">
+        <f>VLOOKUP(A18,'Raw Data'!A:N,14,FALSE)</f>
+        <v>6.3129512999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -4782,8 +5033,12 @@
         <f>VLOOKUP(A19,'Raw Data'!A:M,13,FALSE)</f>
         <v>540</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <f>VLOOKUP(A19,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.250469518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -4811,8 +5066,12 @@
         <f>VLOOKUP(A20,'Raw Data'!A:M,13,FALSE)</f>
         <v>1525</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <f>VLOOKUP(A20,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.70314813600000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -4840,8 +5099,12 @@
         <f>VLOOKUP(A21,'Raw Data'!A:M,13,FALSE)</f>
         <v>219</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3">
+        <f>VLOOKUP(A21,'Raw Data'!A:N,14,FALSE)</f>
+        <v>1.275203138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -4869,8 +5132,12 @@
         <f>VLOOKUP(A22,'Raw Data'!A:M,13,FALSE)</f>
         <v>905</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="3">
+        <f>VLOOKUP(A22,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.327961634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -4898,8 +5165,12 @@
         <f>VLOOKUP(A23,'Raw Data'!A:M,13,FALSE)</f>
         <v>1704</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3">
+        <f>VLOOKUP(A23,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.51603268300000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -4927,8 +5198,12 @@
         <f>VLOOKUP(A24,'Raw Data'!A:M,13,FALSE)</f>
         <v>1216</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="3">
+        <f>VLOOKUP(A24,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.37674350200000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -4956,8 +5231,12 @@
         <f>VLOOKUP(A25,'Raw Data'!A:M,13,FALSE)</f>
         <v>879</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="3">
+        <f>VLOOKUP(A25,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.20633291300000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
@@ -4985,8 +5264,12 @@
         <f>VLOOKUP(A26,'Raw Data'!A:M,13,FALSE)</f>
         <v>1477</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="3">
+        <f>VLOOKUP(A26,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.150679111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
@@ -5014,8 +5297,12 @@
         <f>VLOOKUP(A27,'Raw Data'!A:M,13,FALSE)</f>
         <v>830</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <f>VLOOKUP(A27,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.37541716200000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
@@ -5043,8 +5330,12 @@
         <f>VLOOKUP(A28,'Raw Data'!A:M,13,FALSE)</f>
         <v>829</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="3">
+        <f>VLOOKUP(A28,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.69724425199999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
@@ -5072,8 +5363,12 @@
         <f>VLOOKUP(A29,'Raw Data'!A:M,13,FALSE)</f>
         <v>783</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3">
+        <f>VLOOKUP(A29,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.80145840300000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
@@ -5101,8 +5396,12 @@
         <f>VLOOKUP(A30,'Raw Data'!A:M,13,FALSE)</f>
         <v>918</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="3">
+        <f>VLOOKUP(A30,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.50115657899999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
@@ -5130,8 +5429,12 @@
         <f>VLOOKUP(A31,'Raw Data'!A:M,13,FALSE)</f>
         <v>484</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="3">
+        <f>VLOOKUP(A31,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.28153750900000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>67</v>
       </c>
@@ -5159,8 +5462,12 @@
         <f>VLOOKUP(A32,'Raw Data'!A:M,13,FALSE)</f>
         <v>2046</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="3">
+        <f>VLOOKUP(A32,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.40971121100000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
@@ -5188,8 +5495,12 @@
         <f>VLOOKUP(A33,'Raw Data'!A:M,13,FALSE)</f>
         <v>1040</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="3">
+        <f>VLOOKUP(A33,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.66811743599999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5528,12 @@
         <f>VLOOKUP(A34,'Raw Data'!A:M,13,FALSE)</f>
         <v>1871</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="3">
+        <f>VLOOKUP(A34,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.58058538999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -5246,8 +5561,12 @@
         <f>VLOOKUP(A35,'Raw Data'!A:M,13,FALSE)</f>
         <v>601</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="3">
+        <f>VLOOKUP(A35,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.235954155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
@@ -5275,8 +5594,12 @@
         <f>VLOOKUP(A36,'Raw Data'!A:M,13,FALSE)</f>
         <v>1622</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="3">
+        <f>VLOOKUP(A36,'Raw Data'!A:N,14,FALSE)</f>
+        <v>1.7090666050000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
@@ -5304,8 +5627,12 @@
         <f>VLOOKUP(A37,'Raw Data'!A:M,13,FALSE)</f>
         <v>695</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="3">
+        <f>VLOOKUP(A37,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.44241984699999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
@@ -5333,8 +5660,12 @@
         <f>VLOOKUP(A38,'Raw Data'!A:M,13,FALSE)</f>
         <v>563</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="3">
+        <f>VLOOKUP(A38,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.75385977500000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
@@ -5362,8 +5693,12 @@
         <f>VLOOKUP(A39,'Raw Data'!A:M,13,FALSE)</f>
         <v>321</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="3">
+        <f>VLOOKUP(A39,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.34657661299999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -5391,8 +5726,12 @@
         <f>VLOOKUP(A40,'Raw Data'!A:M,13,FALSE)</f>
         <v>1085</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="3">
+        <f>VLOOKUP(A40,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.44975648800000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
@@ -5420,8 +5759,12 @@
         <f>VLOOKUP(A41,'Raw Data'!A:M,13,FALSE)</f>
         <v>1579</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="3">
+        <f>VLOOKUP(A41,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.66886089400000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>87</v>
       </c>
@@ -5449,8 +5792,12 @@
         <f>VLOOKUP(A42,'Raw Data'!A:M,13,FALSE)</f>
         <v>976</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="3">
+        <f>VLOOKUP(A42,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.38638829000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>89</v>
       </c>
@@ -5478,8 +5825,12 @@
         <f>VLOOKUP(A43,'Raw Data'!A:M,13,FALSE)</f>
         <v>1565</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="3">
+        <f>VLOOKUP(A43,'Raw Data'!A:N,14,FALSE)</f>
+        <v>1.554020049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>91</v>
       </c>
@@ -5507,8 +5858,12 @@
         <f>VLOOKUP(A44,'Raw Data'!A:M,13,FALSE)</f>
         <v>906</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="3">
+        <f>VLOOKUP(A44,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.78668929600000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>93</v>
       </c>
@@ -5536,8 +5891,12 @@
         <f>VLOOKUP(A45,'Raw Data'!A:M,13,FALSE)</f>
         <v>904</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="3">
+        <f>VLOOKUP(A45,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.48689645500000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
@@ -5565,8 +5924,12 @@
         <f>VLOOKUP(A46,'Raw Data'!A:M,13,FALSE)</f>
         <v>367</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="3">
+        <f>VLOOKUP(A46,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.53752828100000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>97</v>
       </c>
@@ -5594,8 +5957,12 @@
         <f>VLOOKUP(A47,'Raw Data'!A:M,13,FALSE)</f>
         <v>177</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="3">
+        <f>VLOOKUP(A47,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.69838623899999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>99</v>
       </c>
@@ -5623,8 +5990,12 @@
         <f>VLOOKUP(A48,'Raw Data'!A:M,13,FALSE)</f>
         <v>546</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="3">
+        <f>VLOOKUP(A48,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.448155146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>101</v>
       </c>
@@ -5652,8 +6023,12 @@
         <f>VLOOKUP(A49,'Raw Data'!A:M,13,FALSE)</f>
         <v>412</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="3">
+        <f>VLOOKUP(A49,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.39810945800000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>103</v>
       </c>
@@ -5681,8 +6056,12 @@
         <f>VLOOKUP(A50,'Raw Data'!A:M,13,FALSE)</f>
         <v>625</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="3">
+        <f>VLOOKUP(A50,'Raw Data'!A:N,14,FALSE)</f>
+        <v>1.643312342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>105</v>
       </c>
@@ -5710,8 +6089,12 @@
         <f>VLOOKUP(A51,'Raw Data'!A:M,13,FALSE)</f>
         <v>817</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="3">
+        <f>VLOOKUP(A51,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.17816610399999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>107</v>
       </c>
@@ -5738,6 +6121,10 @@
       <c r="G52" s="3">
         <f>VLOOKUP(A52,'Raw Data'!A:M,13,FALSE)</f>
         <v>608</v>
+      </c>
+      <c r="H52" s="3">
+        <f>VLOOKUP(A52,'Raw Data'!A:N,14,FALSE)</f>
+        <v>0.49589609200000001</v>
       </c>
     </row>
   </sheetData>
